--- a/data/protein/western.quant.xlsx
+++ b/data/protein/western.quant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristili\R\ribose-paper\data\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1578352-9C0D-4A05-B45C-F991F3B627CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81FA11-0C39-48B0-B06D-59DA36D2DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="84">
   <si>
     <t>gel</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>sample.id</t>
+  </si>
+  <si>
+    <t>pool</t>
   </si>
 </sst>
 </file>
@@ -639,17 +642,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E27BD1-C824-4623-B0AE-633ACA3A0674}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +720,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -788,7 +791,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -859,7 +862,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -930,7 +933,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1010,6 +1013,9 @@
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
       </c>
       <c r="H6">
         <v>120.08</v>
@@ -1060,7 +1066,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1131,7 +1137,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1273,7 +1279,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1424,6 +1430,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>83</v>
       </c>
       <c r="H12">
         <v>100.63800000000001</v>
@@ -1474,7 +1483,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1545,7 +1554,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1687,7 +1696,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1758,7 +1767,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1829,7 +1838,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1980,6 +1989,9 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
       </c>
       <c r="H20">
         <v>113.322</v>
@@ -2030,7 +2042,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2172,7 +2184,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2243,7 +2255,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2385,7 +2397,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2527,7 +2539,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2598,7 +2610,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2607,6 +2619,9 @@
       </c>
       <c r="C29" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
       </c>
       <c r="H29">
         <v>94.635000000000005</v>
@@ -2657,7 +2672,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2728,7 +2743,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2799,7 +2814,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2870,7 +2885,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2941,7 +2956,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2950,6 +2965,9 @@
       </c>
       <c r="C34" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
       </c>
       <c r="H34">
         <v>75.186000000000007</v>
@@ -3000,7 +3018,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3071,7 +3089,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3142,7 +3160,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3213,7 +3231,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3284,7 +3302,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3355,7 +3373,7 @@
         <v>10165000</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3426,7 +3444,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3497,7 +3515,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3506,6 +3524,9 @@
       </c>
       <c r="C42" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
       </c>
       <c r="H42">
         <v>93.119</v>
@@ -3556,7 +3577,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3627,7 +3648,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3698,7 +3719,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3769,7 +3790,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3840,7 +3861,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3911,7 +3932,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3920,6 +3941,9 @@
       </c>
       <c r="C48" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>83</v>
       </c>
       <c r="H48">
         <v>126.10299999999999</v>
@@ -3970,7 +3994,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3979,6 +4003,9 @@
       </c>
       <c r="C49" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>83</v>
       </c>
       <c r="H49">
         <v>157.06200000000001</v>
@@ -4029,7 +4056,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4100,7 +4127,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4171,7 +4198,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4242,7 +4269,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4313,7 +4340,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4322,6 +4349,9 @@
       </c>
       <c r="C54" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>83</v>
       </c>
       <c r="H54">
         <v>135.91499999999999</v>
@@ -4372,7 +4402,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4443,7 +4473,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4514,7 +4544,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4585,7 +4615,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4656,7 +4686,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4727,7 +4757,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4736,6 +4766,9 @@
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>83</v>
       </c>
       <c r="H60">
         <v>137.23099999999999</v>
@@ -4786,7 +4819,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4857,7 +4890,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4928,7 +4961,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4999,7 +5032,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>4</v>
       </c>
@@ -5070,7 +5103,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5141,7 +5174,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5212,7 +5245,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5283,7 +5316,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5292,6 +5325,9 @@
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
       </c>
       <c r="H68">
         <v>110.38500000000001</v>
@@ -5342,7 +5378,7 @@
         <v>9320000</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5413,7 +5449,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4</v>
       </c>
@@ -5484,7 +5520,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>4</v>
       </c>
@@ -5555,7 +5591,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4</v>
       </c>
@@ -5626,7 +5662,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5697,7 +5733,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5706,6 +5742,9 @@
       </c>
       <c r="C74" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D74" t="s">
+        <v>83</v>
       </c>
       <c r="H74">
         <v>87.814999999999998</v>
@@ -5756,7 +5795,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4</v>
       </c>
@@ -5827,7 +5866,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5898,7 +5937,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5969,7 +6008,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4</v>
       </c>
@@ -6040,7 +6079,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4</v>
       </c>
@@ -6111,7 +6150,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>4</v>
       </c>
@@ -6182,7 +6221,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4</v>
       </c>
@@ -6253,7 +6292,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>4</v>
       </c>
@@ -6262,6 +6301,9 @@
       </c>
       <c r="C82" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D82" t="s">
+        <v>83</v>
       </c>
       <c r="H82">
         <v>106.563</v>
@@ -6312,7 +6354,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>4</v>
       </c>
@@ -6383,7 +6425,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>4</v>
       </c>
@@ -6454,7 +6496,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6525,7 +6567,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>4</v>
       </c>
@@ -6596,7 +6638,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>4</v>
       </c>
@@ -6605,6 +6647,9 @@
       </c>
       <c r="C87" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D87" t="s">
+        <v>83</v>
       </c>
       <c r="H87">
         <v>136.839</v>
@@ -6655,7 +6700,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5</v>
       </c>
@@ -6726,7 +6771,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5</v>
       </c>
@@ -6797,7 +6842,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5</v>
       </c>
@@ -6868,7 +6913,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5</v>
       </c>
@@ -6939,7 +6984,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5</v>
       </c>
@@ -6948,6 +6993,9 @@
       </c>
       <c r="C92" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D92" t="s">
+        <v>83</v>
       </c>
       <c r="H92">
         <v>88.388000000000005</v>
@@ -6998,7 +7046,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>5</v>
       </c>
@@ -7069,7 +7117,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>5</v>
       </c>
@@ -7140,7 +7188,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5</v>
       </c>
@@ -7211,7 +7259,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>5</v>
       </c>
@@ -7282,7 +7330,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5</v>
       </c>
@@ -7291,6 +7339,9 @@
       </c>
       <c r="C97" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>83</v>
       </c>
       <c r="H97">
         <v>73.501000000000005</v>
@@ -7341,7 +7392,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>5</v>
       </c>
@@ -7412,7 +7463,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5</v>
       </c>
@@ -7483,7 +7534,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>5</v>
       </c>
@@ -7554,7 +7605,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5</v>
       </c>
@@ -7625,7 +7676,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>5</v>
       </c>
@@ -7696,7 +7747,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>5</v>
       </c>
@@ -7767,7 +7818,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>5</v>
       </c>
@@ -7838,7 +7889,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>5</v>
       </c>
@@ -7847,6 +7898,9 @@
       </c>
       <c r="C105" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D105" t="s">
+        <v>83</v>
       </c>
       <c r="H105">
         <v>93.912000000000006</v>
@@ -7897,7 +7951,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>5</v>
       </c>
@@ -7968,7 +8022,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>5</v>
       </c>
@@ -8039,7 +8093,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>5</v>
       </c>
@@ -8110,7 +8164,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>5</v>
       </c>
@@ -8181,7 +8235,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>5</v>
       </c>
@@ -8252,7 +8306,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>5</v>
       </c>
@@ -8261,6 +8315,9 @@
       </c>
       <c r="C111" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>83</v>
       </c>
       <c r="H111">
         <v>116.617</v>
@@ -8311,7 +8368,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>6</v>
       </c>
@@ -8320,6 +8377,9 @@
       </c>
       <c r="C112" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>83</v>
       </c>
       <c r="H112">
         <v>96.481999999999999</v>
@@ -8370,7 +8430,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>6</v>
       </c>
@@ -8441,7 +8501,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>6</v>
       </c>
@@ -8512,7 +8572,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>6</v>
       </c>
@@ -8583,7 +8643,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>6</v>
       </c>
@@ -8654,7 +8714,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>6</v>
       </c>
@@ -8663,6 +8723,9 @@
       </c>
       <c r="C117" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>83</v>
       </c>
       <c r="H117">
         <v>114.724</v>
@@ -8713,7 +8776,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>6</v>
       </c>
@@ -8784,7 +8847,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>6</v>
       </c>
@@ -8855,7 +8918,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>6</v>
       </c>
@@ -8926,7 +8989,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>6</v>
       </c>
@@ -8997,7 +9060,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>6</v>
       </c>
@@ -9068,7 +9131,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>6</v>
       </c>
@@ -9077,6 +9140,9 @@
       </c>
       <c r="C123" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>83</v>
       </c>
       <c r="H123">
         <v>125.414</v>
@@ -9127,7 +9193,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>6</v>
       </c>
@@ -9198,7 +9264,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>6</v>
       </c>
@@ -9269,7 +9335,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>6</v>
       </c>

--- a/data/protein/western.quant.xlsx
+++ b/data/protein/western.quant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristili\R\ribose-paper\data\protein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706194\projects\ribose-paper\data\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC81FA11-0C39-48B0-B06D-59DA36D2DAC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451379F-7A8B-4CD7-BC60-C1B4D3A5BD32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
+    <workbookView xWindow="-26835" yWindow="2355" windowWidth="25965" windowHeight="11385" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -303,12 +303,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,9 +329,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,7 +352,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -642,17 +650,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E27BD1-C824-4623-B0AE-633ACA3A0674}">
   <dimension ref="A1:V126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:G126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +728,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -791,7 +799,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -862,7 +870,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -933,7 +941,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1004,7 +1012,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1066,7 +1074,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1350,7 +1358,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1421,7 +1429,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1483,7 +1491,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1554,7 +1562,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1625,26 +1633,26 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>103</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H15">
@@ -1696,26 +1704,26 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>105</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>78</v>
       </c>
       <c r="H16">
@@ -1767,7 +1775,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1838,7 +1846,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1909,7 +1917,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2042,7 +2050,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2113,7 +2121,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2184,7 +2192,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2326,7 +2334,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2397,7 +2405,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2468,7 +2476,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2610,7 +2618,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2743,7 +2751,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2885,7 +2893,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2956,7 +2964,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -3018,7 +3026,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3089,7 +3097,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3160,7 +3168,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3373,7 +3381,7 @@
         <v>10165000</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3444,7 +3452,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3515,7 +3523,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3648,7 +3656,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3719,7 +3727,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3790,7 +3798,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3861,7 +3869,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3994,7 +4002,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4056,7 +4064,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4127,7 +4135,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4198,7 +4206,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4269,7 +4277,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4340,7 +4348,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4473,7 +4481,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4544,7 +4552,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4615,7 +4623,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4686,7 +4694,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4757,7 +4765,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4819,7 +4827,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4890,7 +4898,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4961,7 +4969,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -5032,27 +5040,18 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64">
-        <v>101</v>
-      </c>
-      <c r="E64" t="s">
-        <v>79</v>
-      </c>
-      <c r="F64" t="s">
-        <v>71</v>
-      </c>
-      <c r="G64" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D64" t="s">
+        <v>83</v>
       </c>
       <c r="H64">
         <v>123.188</v>
@@ -5103,24 +5102,24 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
       <c r="B65">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G65" t="s">
         <v>77</v>
@@ -5174,27 +5173,27 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
       <c r="B66">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D66">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E66" t="s">
         <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H66">
         <v>136.62700000000001</v>
@@ -5245,18 +5244,18 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
       <c r="B67">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D67">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E67" t="s">
         <v>79</v>
@@ -5316,18 +5315,27 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
       <c r="B68">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D68" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="D68">
+        <v>106</v>
+      </c>
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+      <c r="F68" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
       </c>
       <c r="H68">
         <v>110.38500000000001</v>
@@ -5378,27 +5386,18 @@
         <v>9320000</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
       <c r="B69">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69">
-        <v>102</v>
-      </c>
-      <c r="E69" t="s">
-        <v>80</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G69" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D69" t="s">
+        <v>83</v>
       </c>
       <c r="H69">
         <v>124.97799999999999</v>
@@ -5449,18 +5448,18 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
       <c r="B70">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
         <v>80</v>
@@ -5469,7 +5468,7 @@
         <v>73</v>
       </c>
       <c r="G70" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H70">
         <v>110.67700000000001</v>
@@ -5520,24 +5519,24 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
       <c r="B71">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D71">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E71" t="s">
         <v>79</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G71" t="s">
         <v>77</v>
@@ -5591,24 +5590,24 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
       <c r="B72">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D72">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E72" t="s">
         <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G72" t="s">
         <v>78</v>
@@ -5662,27 +5661,27 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
       <c r="B73">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D73">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
         <v>80</v>
       </c>
       <c r="F73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H73">
         <v>60.067999999999998</v>
@@ -5733,18 +5732,27 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
       <c r="B74">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" t="s">
-        <v>83</v>
+        <v>23</v>
+      </c>
+      <c r="D74">
+        <v>103</v>
+      </c>
+      <c r="E74" t="s">
+        <v>80</v>
+      </c>
+      <c r="F74" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
       </c>
       <c r="H74">
         <v>87.814999999999998</v>
@@ -5795,15 +5803,15 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
       <c r="B75">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D75">
         <v>103</v>
@@ -5812,10 +5820,10 @@
         <v>79</v>
       </c>
       <c r="F75" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H75">
         <v>86.442999999999998</v>
@@ -5866,15 +5874,15 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
       <c r="B76">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76">
         <v>103</v>
@@ -5883,10 +5891,10 @@
         <v>79</v>
       </c>
       <c r="F76" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H76">
         <v>105.58</v>
@@ -5937,27 +5945,18 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
       <c r="B77">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77">
-        <v>103</v>
-      </c>
-      <c r="E77" t="s">
-        <v>80</v>
-      </c>
-      <c r="F77" t="s">
-        <v>72</v>
-      </c>
-      <c r="G77" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="D77" t="s">
+        <v>83</v>
       </c>
       <c r="H77">
         <v>105.81</v>
@@ -6008,27 +6007,27 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
-      <c r="B78">
-        <v>11</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78">
-        <v>105</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="B78" s="3">
+        <v>16</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="3">
+        <v>103</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F78" t="s">
-        <v>72</v>
+      <c r="F78" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="G78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H78">
         <v>95.709000000000003</v>
@@ -6079,24 +6078,24 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
       <c r="B79">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D79">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E79" t="s">
         <v>79</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G79" t="s">
         <v>78</v>
@@ -6150,24 +6149,24 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
       <c r="B80">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D80">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E80" t="s">
         <v>79</v>
       </c>
       <c r="F80" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G80" t="s">
         <v>77</v>
@@ -6221,18 +6220,18 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D81">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E81" t="s">
         <v>80</v>
@@ -6241,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="G81" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H81">
         <v>88.915000000000006</v>
@@ -6292,18 +6291,27 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
       <c r="B82">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D82" t="s">
-        <v>83</v>
+        <v>16</v>
+      </c>
+      <c r="D82">
+        <v>102</v>
+      </c>
+      <c r="E82" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" t="s">
+        <v>72</v>
+      </c>
+      <c r="G82" t="s">
+        <v>77</v>
       </c>
       <c r="H82">
         <v>106.563</v>
@@ -6354,27 +6362,18 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D83">
-        <v>106</v>
-      </c>
-      <c r="E83" t="s">
-        <v>80</v>
-      </c>
-      <c r="F83" t="s">
-        <v>73</v>
-      </c>
-      <c r="G83" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>83</v>
       </c>
       <c r="H83">
         <v>97.793000000000006</v>
@@ -6425,18 +6424,18 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D84">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E84" t="s">
         <v>79</v>
@@ -6496,27 +6495,27 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D85">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E85" t="s">
         <v>80</v>
       </c>
       <c r="F85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H85">
         <v>134.404</v>
@@ -6567,24 +6566,24 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="D86">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G86" t="s">
         <v>77</v>
@@ -6638,18 +6637,27 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
       <c r="B87">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" t="s">
-        <v>83</v>
+        <v>11</v>
+      </c>
+      <c r="D87">
+        <v>101</v>
+      </c>
+      <c r="E87" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" t="s">
+        <v>77</v>
       </c>
       <c r="H87">
         <v>136.839</v>
@@ -6700,27 +6708,18 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5</v>
       </c>
       <c r="B88">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D88">
-        <v>107</v>
-      </c>
-      <c r="E88" t="s">
-        <v>80</v>
-      </c>
-      <c r="F88" t="s">
-        <v>72</v>
-      </c>
-      <c r="G88" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="D88" t="s">
+        <v>83</v>
       </c>
       <c r="H88">
         <v>116.83799999999999</v>
@@ -6771,24 +6770,24 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5</v>
       </c>
       <c r="B89">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D89">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E89" t="s">
         <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G89" t="s">
         <v>77</v>
@@ -6842,24 +6841,24 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5</v>
       </c>
       <c r="B90">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="D90">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F90" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G90" t="s">
         <v>78</v>
@@ -6913,24 +6912,24 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5</v>
       </c>
       <c r="B91">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D91">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
         <v>80</v>
       </c>
       <c r="F91" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G91" t="s">
         <v>77</v>
@@ -6984,18 +6983,27 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
       <c r="B92">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" t="s">
-        <v>83</v>
+        <v>48</v>
+      </c>
+      <c r="D92">
+        <v>113</v>
+      </c>
+      <c r="E92" t="s">
+        <v>79</v>
+      </c>
+      <c r="F92" t="s">
+        <v>74</v>
+      </c>
+      <c r="G92" t="s">
+        <v>78</v>
       </c>
       <c r="H92">
         <v>88.388000000000005</v>
@@ -7046,18 +7054,18 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
       <c r="B93">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D93">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
         <v>80</v>
@@ -7066,7 +7074,7 @@
         <v>72</v>
       </c>
       <c r="G93" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H93">
         <v>65.625</v>
@@ -7117,27 +7125,18 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
       <c r="B94">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D94">
-        <v>108</v>
-      </c>
-      <c r="E94" t="s">
-        <v>79</v>
-      </c>
-      <c r="F94" t="s">
-        <v>74</v>
-      </c>
-      <c r="G94" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="D94" t="s">
+        <v>83</v>
       </c>
       <c r="H94">
         <v>82.317999999999998</v>
@@ -7188,24 +7187,24 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
       <c r="B95">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D95">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F95" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G95" t="s">
         <v>78</v>
@@ -7259,24 +7258,24 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
       <c r="B96">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D96">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F96" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G96" t="s">
         <v>77</v>
@@ -7330,18 +7329,27 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D97" t="s">
-        <v>83</v>
+        <v>44</v>
+      </c>
+      <c r="D97">
+        <v>112</v>
+      </c>
+      <c r="E97" t="s">
+        <v>79</v>
+      </c>
+      <c r="F97" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" t="s">
+        <v>77</v>
       </c>
       <c r="H97">
         <v>73.501000000000005</v>
@@ -7392,27 +7400,27 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
       <c r="B98">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D98">
         <v>109</v>
       </c>
       <c r="E98" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F98" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G98" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H98">
         <v>67.942999999999998</v>
@@ -7463,27 +7471,27 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
       <c r="B99">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D99">
         <v>109</v>
       </c>
       <c r="E99" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G99" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H99">
         <v>83.948999999999998</v>
@@ -7534,27 +7542,27 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
       <c r="B100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D100">
         <v>109</v>
       </c>
       <c r="E100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F100" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G100" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H100">
         <v>91.025999999999996</v>
@@ -7605,27 +7613,27 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
       <c r="B101">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D101">
         <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H101">
         <v>61.597999999999999</v>
@@ -7676,27 +7684,18 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
       <c r="B102">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D102">
-        <v>112</v>
-      </c>
-      <c r="E102" t="s">
-        <v>79</v>
-      </c>
-      <c r="F102" t="s">
-        <v>74</v>
-      </c>
-      <c r="G102" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>83</v>
       </c>
       <c r="H102">
         <v>74.644000000000005</v>
@@ -7747,24 +7746,24 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D103">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E103" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F103" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G103" t="s">
         <v>77</v>
@@ -7818,24 +7817,24 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
       <c r="B104">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D104">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F104" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G104" t="s">
         <v>78</v>
@@ -7889,18 +7888,27 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
       <c r="B105">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D105" t="s">
-        <v>83</v>
+        <v>37</v>
+      </c>
+      <c r="D105">
+        <v>108</v>
+      </c>
+      <c r="E105" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" t="s">
+        <v>74</v>
+      </c>
+      <c r="G105" t="s">
+        <v>78</v>
       </c>
       <c r="H105">
         <v>93.912000000000006</v>
@@ -7951,18 +7959,18 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
       <c r="B106">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D106">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E106" t="s">
         <v>80</v>
@@ -7971,7 +7979,7 @@
         <v>72</v>
       </c>
       <c r="G106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H106">
         <v>94.802000000000007</v>
@@ -8022,27 +8030,18 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
       <c r="B107">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D107">
-        <v>113</v>
-      </c>
-      <c r="E107" t="s">
-        <v>79</v>
-      </c>
-      <c r="F107" t="s">
-        <v>74</v>
-      </c>
-      <c r="G107" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>83</v>
       </c>
       <c r="H107">
         <v>102.58</v>
@@ -8093,24 +8092,24 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D108">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E108" t="s">
         <v>80</v>
       </c>
       <c r="F108" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G108" t="s">
         <v>77</v>
@@ -8164,24 +8163,24 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D109">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F109" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G109" t="s">
         <v>78</v>
@@ -8235,24 +8234,24 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
       <c r="B110">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D110">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E110" t="s">
         <v>79</v>
       </c>
       <c r="F110" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G110" t="s">
         <v>77</v>
@@ -8306,18 +8305,27 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>83</v>
+        <v>32</v>
+      </c>
+      <c r="D111">
+        <v>107</v>
+      </c>
+      <c r="E111" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" t="s">
+        <v>72</v>
+      </c>
+      <c r="G111" t="s">
+        <v>78</v>
       </c>
       <c r="H111">
         <v>116.617</v>
@@ -8368,18 +8376,27 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
       <c r="B112">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>83</v>
+        <v>63</v>
+      </c>
+      <c r="D112">
+        <v>116</v>
+      </c>
+      <c r="E112" t="s">
+        <v>80</v>
+      </c>
+      <c r="F112" t="s">
+        <v>72</v>
+      </c>
+      <c r="G112" t="s">
+        <v>77</v>
       </c>
       <c r="H112">
         <v>96.481999999999999</v>
@@ -8430,18 +8447,18 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
       <c r="B113">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D113">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E113" t="s">
         <v>79</v>
@@ -8450,7 +8467,7 @@
         <v>71</v>
       </c>
       <c r="G113" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H113">
         <v>99.013999999999996</v>
@@ -8501,27 +8518,27 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6</v>
       </c>
       <c r="B114">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D114">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E114" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F114" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G114" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H114">
         <v>100.93300000000001</v>
@@ -8572,27 +8589,18 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
       <c r="B115">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D115">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>79</v>
-      </c>
-      <c r="F115" t="s">
-        <v>74</v>
-      </c>
-      <c r="G115" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>83</v>
       </c>
       <c r="H115">
         <v>113.443</v>
@@ -8643,24 +8651,24 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
       <c r="B116">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D116">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116" t="s">
         <v>80</v>
       </c>
       <c r="F116" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G116" t="s">
         <v>78</v>
@@ -8714,18 +8722,27 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>83</v>
+        <v>59</v>
+      </c>
+      <c r="D117">
+        <v>115</v>
+      </c>
+      <c r="E117" t="s">
+        <v>80</v>
+      </c>
+      <c r="F117" t="s">
+        <v>72</v>
+      </c>
+      <c r="G117" t="s">
+        <v>78</v>
       </c>
       <c r="H117">
         <v>114.724</v>
@@ -8776,24 +8793,24 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6</v>
       </c>
       <c r="B118">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D118">
         <v>115</v>
       </c>
       <c r="E118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F118" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G118" t="s">
         <v>77</v>
@@ -8847,7 +8864,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -8918,24 +8935,24 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6</v>
       </c>
       <c r="B120">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D120">
         <v>115</v>
       </c>
       <c r="E120" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F120" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G120" t="s">
         <v>77</v>
@@ -8989,27 +9006,18 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D121">
-        <v>115</v>
-      </c>
-      <c r="E121" t="s">
-        <v>80</v>
-      </c>
-      <c r="F121" t="s">
-        <v>72</v>
-      </c>
-      <c r="G121" t="s">
-        <v>78</v>
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>83</v>
       </c>
       <c r="H121">
         <v>102.512</v>
@@ -9060,24 +9068,24 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
       <c r="B122">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D122">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E122" t="s">
         <v>80</v>
       </c>
       <c r="F122" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G122" t="s">
         <v>78</v>
@@ -9131,18 +9139,27 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6</v>
       </c>
       <c r="B123">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>83</v>
+        <v>54</v>
+      </c>
+      <c r="D123">
+        <v>114</v>
+      </c>
+      <c r="E123" t="s">
+        <v>79</v>
+      </c>
+      <c r="F123" t="s">
+        <v>74</v>
+      </c>
+      <c r="G123" t="s">
+        <v>77</v>
       </c>
       <c r="H123">
         <v>125.414</v>
@@ -9193,27 +9210,27 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D124">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G124" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H124">
         <v>119.09099999999999</v>
@@ -9264,18 +9281,18 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
       <c r="B125">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D125">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E125" t="s">
         <v>79</v>
@@ -9284,7 +9301,7 @@
         <v>71</v>
       </c>
       <c r="G125" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H125">
         <v>131.04</v>
@@ -9335,27 +9352,18 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D126">
-        <v>116</v>
-      </c>
-      <c r="E126" t="s">
-        <v>80</v>
-      </c>
-      <c r="F126" t="s">
-        <v>72</v>
-      </c>
-      <c r="G126" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>83</v>
       </c>
       <c r="H126">
         <v>128.71799999999999</v>
@@ -9407,6 +9415,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A112:G126">
+    <sortCondition ref="B112:B126"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/protein/western.quant.xlsx
+++ b/data/protein/western.quant.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\706194\projects\ribose-paper\data\protein\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristili\R\ribose-paper\data\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451379F-7A8B-4CD7-BC60-C1B4D3A5BD32}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F8B4DA-588F-4FA1-ACE3-A5D8A21DA10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26835" yWindow="2355" windowWidth="25965" windowHeight="11385" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="81">
   <si>
     <t>gel</t>
   </si>
@@ -242,15 +242,6 @@
     <t>rps62.sig</t>
   </si>
   <si>
-    <t>cmyc.ms</t>
-  </si>
-  <si>
-    <t>ubf.ms</t>
-  </si>
-  <si>
-    <t>rps6.ms</t>
-  </si>
-  <si>
     <t>T2pro1</t>
   </si>
   <si>
@@ -269,12 +260,6 @@
     <t>leg</t>
   </si>
   <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -288,6 +273,12 @@
   </si>
   <si>
     <t>pool</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -352,7 +343,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -648,19 +639,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E27BD1-C824-4623-B0AE-633ACA3A0674}">
-  <dimension ref="A1:V126"/>
+  <dimension ref="A1:S126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:G126"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -668,19 +659,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
         <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -707,28 +698,19 @@
         <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="Q1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="R1" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="S1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" t="s">
         <v>67</v>
       </c>
-      <c r="V1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,13 +724,13 @@
         <v>101</v>
       </c>
       <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
         <v>79</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
       </c>
       <c r="H2">
         <v>128.404</v>
@@ -775,31 +757,19 @@
         <v>27200000</v>
       </c>
       <c r="P2">
-        <f>AVERAGE(N2,O2)</f>
-        <v>28250000</v>
+        <v>4320000</v>
       </c>
       <c r="Q2">
         <v>4320000</v>
       </c>
       <c r="R2">
-        <v>4320000</v>
+        <v>13100000</v>
       </c>
       <c r="S2">
-        <f>AVERAGE(Q2,R2)</f>
-        <v>4320000</v>
-      </c>
-      <c r="T2">
-        <v>13100000</v>
-      </c>
-      <c r="U2">
         <v>12900000</v>
       </c>
-      <c r="V2">
-        <f>AVERAGE(T2,U2)</f>
-        <v>13000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -813,13 +783,13 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H3">
         <v>107.32</v>
@@ -846,31 +816,19 @@
         <v>3610000</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="0">AVERAGE(N3,O3)</f>
-        <v>4295000</v>
+        <v>3860000</v>
       </c>
       <c r="Q3">
         <v>3860000</v>
       </c>
       <c r="R3">
-        <v>3860000</v>
+        <v>12600000</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S66" si="1">AVERAGE(Q3,R3)</f>
-        <v>3860000</v>
-      </c>
-      <c r="T3">
-        <v>12600000</v>
-      </c>
-      <c r="U3">
         <v>12300000</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V66" si="2">AVERAGE(T3,U3)</f>
-        <v>12450000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -884,13 +842,13 @@
         <v>101</v>
       </c>
       <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
         <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
       </c>
       <c r="H4">
         <v>142.54499999999999</v>
@@ -917,31 +875,19 @@
         <v>31400000</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
-        <v>33200000</v>
+        <v>9640000</v>
       </c>
       <c r="Q4">
         <v>9640000</v>
       </c>
       <c r="R4">
-        <v>9640000</v>
+        <v>33300000</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
-        <v>9640000</v>
-      </c>
-      <c r="T4">
-        <v>33300000</v>
-      </c>
-      <c r="U4">
         <v>35100000</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="2"/>
-        <v>34200000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -955,13 +901,13 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H5">
         <v>125.527</v>
@@ -988,31 +934,19 @@
         <v>7710000</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
         <v>7660000</v>
       </c>
       <c r="Q5">
         <v>7660000</v>
       </c>
       <c r="R5">
-        <v>7660000</v>
+        <v>23000000</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
-        <v>7660000</v>
-      </c>
-      <c r="T5">
-        <v>23000000</v>
-      </c>
-      <c r="U5">
         <v>22400000</v>
       </c>
-      <c r="V5">
-        <f t="shared" si="2"/>
-        <v>22700000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1023,7 +957,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>120.08</v>
@@ -1050,31 +984,19 @@
         <v>19700000</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
-        <v>20250000</v>
+        <v>10300000</v>
       </c>
       <c r="Q6">
         <v>10300000</v>
       </c>
       <c r="R6">
-        <v>10300000</v>
+        <v>18700000</v>
       </c>
       <c r="S6">
-        <f t="shared" si="1"/>
-        <v>10300000</v>
-      </c>
-      <c r="T6">
-        <v>18700000</v>
-      </c>
-      <c r="U6">
         <v>18300000</v>
       </c>
-      <c r="V6">
-        <f t="shared" si="2"/>
-        <v>18500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1088,13 +1010,13 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7">
         <v>134.393</v>
@@ -1121,31 +1043,19 @@
         <v>56200000</v>
       </c>
       <c r="P7">
-        <f t="shared" si="0"/>
-        <v>58600000</v>
+        <v>13700000</v>
       </c>
       <c r="Q7">
         <v>13700000</v>
       </c>
       <c r="R7">
-        <v>13700000</v>
+        <v>36900000</v>
       </c>
       <c r="S7">
-        <f t="shared" si="1"/>
-        <v>13700000</v>
-      </c>
-      <c r="T7">
-        <v>36900000</v>
-      </c>
-      <c r="U7">
         <v>35800000</v>
       </c>
-      <c r="V7">
-        <f t="shared" si="2"/>
-        <v>36350000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1159,13 +1069,13 @@
         <v>102</v>
       </c>
       <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
         <v>80</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>78</v>
       </c>
       <c r="H8">
         <v>122.508</v>
@@ -1192,31 +1102,19 @@
         <v>48700000</v>
       </c>
       <c r="P8">
-        <f t="shared" si="0"/>
-        <v>50950000</v>
+        <v>9090000</v>
       </c>
       <c r="Q8">
         <v>9090000</v>
       </c>
       <c r="R8">
-        <v>9090000</v>
+        <v>27900000</v>
       </c>
       <c r="S8">
-        <f t="shared" si="1"/>
-        <v>9090000</v>
-      </c>
-      <c r="T8">
-        <v>27900000</v>
-      </c>
-      <c r="U8">
         <v>30300000</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="2"/>
-        <v>29100000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1230,13 +1128,13 @@
         <v>102</v>
       </c>
       <c r="E9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
         <v>79</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
       </c>
       <c r="H9">
         <v>116.749</v>
@@ -1263,31 +1161,19 @@
         <v>12100000</v>
       </c>
       <c r="P9">
-        <f t="shared" si="0"/>
-        <v>12100000</v>
+        <v>8810000</v>
       </c>
       <c r="Q9">
         <v>8810000</v>
       </c>
       <c r="R9">
-        <v>8810000</v>
+        <v>15700000</v>
       </c>
       <c r="S9">
-        <f t="shared" si="1"/>
-        <v>8810000</v>
-      </c>
-      <c r="T9">
-        <v>15700000</v>
-      </c>
-      <c r="U9">
         <v>15300000</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="2"/>
-        <v>15500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1301,13 +1187,13 @@
         <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H10">
         <v>104.089</v>
@@ -1334,31 +1220,19 @@
         <v>6050000</v>
       </c>
       <c r="P10">
-        <f t="shared" si="0"/>
-        <v>6240000</v>
+        <v>6390000</v>
       </c>
       <c r="Q10">
         <v>6390000</v>
       </c>
       <c r="R10">
-        <v>6390000</v>
+        <v>17300000</v>
       </c>
       <c r="S10">
-        <f t="shared" si="1"/>
-        <v>6390000</v>
-      </c>
-      <c r="T10">
-        <v>17300000</v>
-      </c>
-      <c r="U10">
         <v>16700000</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="2"/>
-        <v>17000000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1372,13 +1246,13 @@
         <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H11">
         <v>78.551000000000002</v>
@@ -1405,31 +1279,19 @@
         <v>18600000</v>
       </c>
       <c r="P11">
-        <f t="shared" si="0"/>
-        <v>18850000</v>
+        <v>3120000</v>
       </c>
       <c r="Q11">
-        <v>3120000</v>
+        <v>2950000</v>
       </c>
       <c r="R11">
-        <v>2950000</v>
+        <v>15800000</v>
       </c>
       <c r="S11">
-        <f t="shared" si="1"/>
-        <v>3035000</v>
-      </c>
-      <c r="T11">
-        <v>15800000</v>
-      </c>
-      <c r="U11">
         <v>15300000</v>
       </c>
-      <c r="V11">
-        <f t="shared" si="2"/>
-        <v>15550000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1440,7 +1302,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H12">
         <v>100.63800000000001</v>
@@ -1467,31 +1329,19 @@
         <v>20600000</v>
       </c>
       <c r="P12">
-        <f t="shared" si="0"/>
-        <v>21450000</v>
+        <v>9160000</v>
       </c>
       <c r="Q12">
         <v>9160000</v>
       </c>
       <c r="R12">
-        <v>9160000</v>
+        <v>22700000</v>
       </c>
       <c r="S12">
-        <f t="shared" si="1"/>
-        <v>9160000</v>
-      </c>
-      <c r="T12">
-        <v>22700000</v>
-      </c>
-      <c r="U12">
         <v>22100000</v>
       </c>
-      <c r="V12">
-        <f t="shared" si="2"/>
-        <v>22400000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1505,13 +1355,13 @@
         <v>103</v>
       </c>
       <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
       </c>
       <c r="H13">
         <v>100.029</v>
@@ -1538,31 +1388,19 @@
         <v>6650000</v>
       </c>
       <c r="P13">
-        <f t="shared" si="0"/>
-        <v>7195000</v>
+        <v>5000000</v>
       </c>
       <c r="Q13">
         <v>5000000</v>
       </c>
       <c r="R13">
-        <v>5000000</v>
+        <v>16500000</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
-        <v>5000000</v>
-      </c>
-      <c r="T13">
-        <v>16500000</v>
-      </c>
-      <c r="U13">
         <v>17800000</v>
       </c>
-      <c r="V13">
-        <f t="shared" si="2"/>
-        <v>17150000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1576,13 +1414,13 @@
         <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14">
         <v>115.724</v>
@@ -1609,31 +1447,19 @@
         <v>22100000</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
-        <v>22300000</v>
+        <v>6930000</v>
       </c>
       <c r="Q14">
-        <v>6930000</v>
+        <v>6990000</v>
       </c>
       <c r="R14">
-        <v>6990000</v>
+        <v>29300000</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
-        <v>6960000</v>
-      </c>
-      <c r="T14">
-        <v>29300000</v>
-      </c>
-      <c r="U14">
         <v>31500000</v>
       </c>
-      <c r="V14">
-        <f t="shared" si="2"/>
-        <v>30400000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1647,13 +1473,13 @@
         <v>103</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="H15">
         <v>111.92400000000001</v>
@@ -1680,31 +1506,19 @@
         <v>48000000</v>
       </c>
       <c r="P15">
-        <f t="shared" si="0"/>
-        <v>48350000</v>
+        <v>20500000</v>
       </c>
       <c r="Q15">
         <v>20500000</v>
       </c>
       <c r="R15">
-        <v>20500000</v>
+        <v>40400000</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
-        <v>20500000</v>
-      </c>
-      <c r="T15">
-        <v>40400000</v>
-      </c>
-      <c r="U15">
         <v>39000000</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="2"/>
-        <v>39700000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1718,13 +1532,13 @@
         <v>105</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="H16">
         <v>105.032</v>
@@ -1751,31 +1565,19 @@
         <v>23700000</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
-        <v>25100000</v>
+        <v>19600000</v>
       </c>
       <c r="Q16">
         <v>19600000</v>
       </c>
       <c r="R16">
-        <v>19600000</v>
+        <v>34800000</v>
       </c>
       <c r="S16">
-        <f t="shared" si="1"/>
-        <v>19600000</v>
-      </c>
-      <c r="T16">
-        <v>34800000</v>
-      </c>
-      <c r="U16">
         <v>37600000</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="2"/>
-        <v>36200000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1789,13 +1591,13 @@
         <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H17">
         <v>95.867999999999995</v>
@@ -1822,31 +1624,19 @@
         <v>12900000</v>
       </c>
       <c r="P17">
-        <f t="shared" si="0"/>
-        <v>13400000</v>
+        <v>5650000</v>
       </c>
       <c r="Q17">
         <v>5650000</v>
       </c>
       <c r="R17">
-        <v>5650000</v>
+        <v>23100000</v>
       </c>
       <c r="S17">
-        <f t="shared" si="1"/>
-        <v>5650000</v>
-      </c>
-      <c r="T17">
-        <v>23100000</v>
-      </c>
-      <c r="U17">
         <v>22600000</v>
       </c>
-      <c r="V17">
-        <f t="shared" si="2"/>
-        <v>22850000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1860,13 +1650,13 @@
         <v>105</v>
       </c>
       <c r="E18" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
         <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
       </c>
       <c r="H18">
         <v>120.035</v>
@@ -1893,31 +1683,19 @@
         <v>6600000</v>
       </c>
       <c r="P18">
-        <f t="shared" si="0"/>
-        <v>7145000</v>
+        <v>12400000</v>
       </c>
       <c r="Q18">
         <v>12400000</v>
       </c>
       <c r="R18">
-        <v>12400000</v>
+        <v>35400000</v>
       </c>
       <c r="S18">
-        <f t="shared" si="1"/>
-        <v>12400000</v>
-      </c>
-      <c r="T18">
-        <v>35400000</v>
-      </c>
-      <c r="U18">
         <v>34600000</v>
       </c>
-      <c r="V18">
-        <f t="shared" si="2"/>
-        <v>35000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1931,13 +1709,13 @@
         <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H19">
         <v>96.727999999999994</v>
@@ -1964,31 +1742,19 @@
         <v>9680000</v>
       </c>
       <c r="P19">
-        <f t="shared" si="0"/>
-        <v>10140000</v>
+        <v>11100000</v>
       </c>
       <c r="Q19">
         <v>11100000</v>
       </c>
       <c r="R19">
-        <v>11100000</v>
+        <v>33500000</v>
       </c>
       <c r="S19">
-        <f t="shared" si="1"/>
-        <v>11100000</v>
-      </c>
-      <c r="T19">
-        <v>33500000</v>
-      </c>
-      <c r="U19">
         <v>32600000</v>
       </c>
-      <c r="V19">
-        <f t="shared" si="2"/>
-        <v>33050000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1999,7 +1765,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H20">
         <v>113.322</v>
@@ -2026,31 +1792,19 @@
         <v>23400000</v>
       </c>
       <c r="P20">
-        <f t="shared" si="0"/>
-        <v>24200000</v>
+        <v>8980000</v>
       </c>
       <c r="Q20">
         <v>8980000</v>
       </c>
       <c r="R20">
-        <v>8980000</v>
+        <v>25800000</v>
       </c>
       <c r="S20">
-        <f t="shared" si="1"/>
-        <v>8980000</v>
-      </c>
-      <c r="T20">
-        <v>25800000</v>
-      </c>
-      <c r="U20">
         <v>25300000</v>
       </c>
-      <c r="V20">
-        <f t="shared" si="2"/>
-        <v>25550000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2064,13 +1818,13 @@
         <v>106</v>
       </c>
       <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
         <v>80</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" t="s">
-        <v>78</v>
       </c>
       <c r="H21">
         <v>99.576999999999998</v>
@@ -2097,31 +1851,19 @@
         <v>3230000</v>
       </c>
       <c r="P21">
-        <f t="shared" si="0"/>
-        <v>3375000</v>
+        <v>2830000</v>
       </c>
       <c r="Q21">
-        <v>2830000</v>
+        <v>2740000</v>
       </c>
       <c r="R21">
-        <v>2740000</v>
+        <v>11500000</v>
       </c>
       <c r="S21">
-        <f t="shared" si="1"/>
-        <v>2785000</v>
-      </c>
-      <c r="T21">
-        <v>11500000</v>
-      </c>
-      <c r="U21">
         <v>11100000</v>
       </c>
-      <c r="V21">
-        <f t="shared" si="2"/>
-        <v>11300000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2135,13 +1877,13 @@
         <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H22">
         <v>110.42</v>
@@ -2168,31 +1910,19 @@
         <v>4030000</v>
       </c>
       <c r="P22">
-        <f t="shared" si="0"/>
-        <v>4130000</v>
+        <v>6150000</v>
       </c>
       <c r="Q22">
         <v>6150000</v>
       </c>
       <c r="R22">
-        <v>6150000</v>
+        <v>19400000</v>
       </c>
       <c r="S22">
-        <f t="shared" si="1"/>
-        <v>6150000</v>
-      </c>
-      <c r="T22">
-        <v>19400000</v>
-      </c>
-      <c r="U22">
         <v>18900000</v>
       </c>
-      <c r="V22">
-        <f t="shared" si="2"/>
-        <v>19150000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2206,13 +1936,13 @@
         <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23">
         <v>132.131</v>
@@ -2239,31 +1969,19 @@
         <v>13100000</v>
       </c>
       <c r="P23">
-        <f t="shared" si="0"/>
-        <v>13900000</v>
+        <v>8320000</v>
       </c>
       <c r="Q23">
         <v>8320000</v>
       </c>
       <c r="R23">
-        <v>8320000</v>
+        <v>25100000</v>
       </c>
       <c r="S23">
-        <f t="shared" si="1"/>
-        <v>8320000</v>
-      </c>
-      <c r="T23">
-        <v>25100000</v>
-      </c>
-      <c r="U23">
         <v>22800000</v>
       </c>
-      <c r="V23">
-        <f t="shared" si="2"/>
-        <v>23950000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2277,13 +1995,13 @@
         <v>106</v>
       </c>
       <c r="E24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
         <v>79</v>
-      </c>
-      <c r="F24" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" t="s">
-        <v>77</v>
       </c>
       <c r="H24">
         <v>129.727</v>
@@ -2310,31 +2028,19 @@
         <v>4270000</v>
       </c>
       <c r="P24">
-        <f t="shared" si="0"/>
-        <v>4500000</v>
+        <v>6050000</v>
       </c>
       <c r="Q24">
         <v>6050000</v>
       </c>
       <c r="R24">
-        <v>6050000</v>
+        <v>18200000</v>
       </c>
       <c r="S24">
-        <f t="shared" si="1"/>
-        <v>6050000</v>
-      </c>
-      <c r="T24">
-        <v>18200000</v>
-      </c>
-      <c r="U24">
         <v>18600000</v>
       </c>
-      <c r="V24">
-        <f t="shared" si="2"/>
-        <v>18400000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2348,13 +2054,13 @@
         <v>107</v>
       </c>
       <c r="E25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
         <v>80</v>
-      </c>
-      <c r="F25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" t="s">
-        <v>78</v>
       </c>
       <c r="H25">
         <v>107.32299999999999</v>
@@ -2381,31 +2087,19 @@
         <v>11100000</v>
       </c>
       <c r="P25">
-        <f t="shared" si="0"/>
-        <v>11650000</v>
+        <v>7310000</v>
       </c>
       <c r="Q25">
         <v>7310000</v>
       </c>
       <c r="R25">
-        <v>7310000</v>
+        <v>17200000</v>
       </c>
       <c r="S25">
-        <f t="shared" si="1"/>
-        <v>7310000</v>
-      </c>
-      <c r="T25">
-        <v>17200000</v>
-      </c>
-      <c r="U25">
         <v>16800000</v>
       </c>
-      <c r="V25">
-        <f t="shared" si="2"/>
-        <v>17000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2419,13 +2113,13 @@
         <v>107</v>
       </c>
       <c r="E26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
       </c>
       <c r="H26">
         <v>110.971</v>
@@ -2452,31 +2146,19 @@
         <v>14600000</v>
       </c>
       <c r="P26">
-        <f t="shared" si="0"/>
-        <v>15100000</v>
+        <v>6480000</v>
       </c>
       <c r="Q26">
         <v>6480000</v>
       </c>
       <c r="R26">
-        <v>6480000</v>
+        <v>13200000</v>
       </c>
       <c r="S26">
-        <f t="shared" si="1"/>
-        <v>6480000</v>
-      </c>
-      <c r="T26">
-        <v>13200000</v>
-      </c>
-      <c r="U26">
         <v>12900000</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="2"/>
-        <v>13050000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2490,13 +2172,13 @@
         <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H27">
         <v>115.014</v>
@@ -2523,31 +2205,19 @@
         <v>5070000</v>
       </c>
       <c r="P27">
-        <f t="shared" si="0"/>
-        <v>5730000</v>
+        <v>12900000</v>
       </c>
       <c r="Q27">
         <v>12900000</v>
       </c>
       <c r="R27">
-        <v>12900000</v>
+        <v>21200000</v>
       </c>
       <c r="S27">
-        <f t="shared" si="1"/>
-        <v>12900000</v>
-      </c>
-      <c r="T27">
-        <v>21200000</v>
-      </c>
-      <c r="U27">
         <v>20600000</v>
       </c>
-      <c r="V27">
-        <f t="shared" si="2"/>
-        <v>20900000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2561,13 +2231,13 @@
         <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H28">
         <v>95.224999999999994</v>
@@ -2594,31 +2264,19 @@
         <v>21400000</v>
       </c>
       <c r="P28">
-        <f t="shared" si="0"/>
-        <v>22600000</v>
+        <v>13100000</v>
       </c>
       <c r="Q28">
-        <v>13100000</v>
+        <v>12100000</v>
       </c>
       <c r="R28">
-        <v>12100000</v>
+        <v>18500000</v>
       </c>
       <c r="S28">
-        <f t="shared" si="1"/>
-        <v>12600000</v>
-      </c>
-      <c r="T28">
-        <v>18500000</v>
-      </c>
-      <c r="U28">
         <v>18000000</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="2"/>
-        <v>18250000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2629,7 +2287,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H29">
         <v>94.635000000000005</v>
@@ -2656,31 +2314,19 @@
         <v>13700000</v>
       </c>
       <c r="P29">
-        <f t="shared" si="0"/>
-        <v>14650000</v>
+        <v>9400000</v>
       </c>
       <c r="Q29">
         <v>9400000</v>
       </c>
       <c r="R29">
-        <v>9400000</v>
+        <v>16800000</v>
       </c>
       <c r="S29">
-        <f t="shared" si="1"/>
-        <v>9400000</v>
-      </c>
-      <c r="T29">
-        <v>16800000</v>
-      </c>
-      <c r="U29">
         <v>18500000</v>
       </c>
-      <c r="V29">
-        <f t="shared" si="2"/>
-        <v>17650000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2694,13 +2340,13 @@
         <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H30">
         <v>79.073999999999998</v>
@@ -2727,31 +2373,19 @@
         <v>22600000</v>
       </c>
       <c r="P30">
-        <f t="shared" si="0"/>
-        <v>24000000</v>
+        <v>5700000</v>
       </c>
       <c r="Q30">
-        <v>5700000</v>
+        <v>5950000</v>
       </c>
       <c r="R30">
-        <v>5950000</v>
+        <v>16300000</v>
       </c>
       <c r="S30">
-        <f t="shared" si="1"/>
-        <v>5825000</v>
-      </c>
-      <c r="T30">
-        <v>16300000</v>
-      </c>
-      <c r="U30">
         <v>15900000</v>
       </c>
-      <c r="V30">
-        <f t="shared" si="2"/>
-        <v>16100000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2765,13 +2399,13 @@
         <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G31" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H31">
         <v>90.495000000000005</v>
@@ -2798,31 +2432,19 @@
         <v>7550000</v>
       </c>
       <c r="P31">
-        <f t="shared" si="0"/>
-        <v>7725000</v>
+        <v>3360000</v>
       </c>
       <c r="Q31">
         <v>3360000</v>
       </c>
       <c r="R31">
-        <v>3360000</v>
+        <v>14900000</v>
       </c>
       <c r="S31">
-        <f t="shared" si="1"/>
-        <v>3360000</v>
-      </c>
-      <c r="T31">
-        <v>14900000</v>
-      </c>
-      <c r="U31">
         <v>14400000</v>
       </c>
-      <c r="V31">
-        <f t="shared" si="2"/>
-        <v>14650000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2836,13 +2458,13 @@
         <v>108</v>
       </c>
       <c r="E32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" t="s">
         <v>80</v>
-      </c>
-      <c r="F32" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" t="s">
-        <v>78</v>
       </c>
       <c r="H32">
         <v>107.393</v>
@@ -2869,31 +2491,19 @@
         <v>64900000</v>
       </c>
       <c r="P32">
-        <f t="shared" si="0"/>
-        <v>68500000</v>
+        <v>18700000</v>
       </c>
       <c r="Q32">
         <v>18700000</v>
       </c>
       <c r="R32">
-        <v>18700000</v>
+        <v>37300000</v>
       </c>
       <c r="S32">
-        <f t="shared" si="1"/>
-        <v>18700000</v>
-      </c>
-      <c r="T32">
-        <v>37300000</v>
-      </c>
-      <c r="U32">
         <v>36000000</v>
       </c>
-      <c r="V32">
-        <f t="shared" si="2"/>
-        <v>36650000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2907,13 +2517,13 @@
         <v>108</v>
       </c>
       <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" t="s">
         <v>79</v>
-      </c>
-      <c r="F33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" t="s">
-        <v>77</v>
       </c>
       <c r="H33">
         <v>79.418999999999997</v>
@@ -2940,31 +2550,19 @@
         <v>9650000</v>
       </c>
       <c r="P33">
-        <f t="shared" si="0"/>
-        <v>10125000</v>
+        <v>4020000</v>
       </c>
       <c r="Q33">
         <v>4020000</v>
       </c>
       <c r="R33">
-        <v>4020000</v>
+        <v>15100000</v>
       </c>
       <c r="S33">
-        <f t="shared" si="1"/>
-        <v>4020000</v>
-      </c>
-      <c r="T33">
-        <v>15100000</v>
-      </c>
-      <c r="U33">
         <v>14900000</v>
       </c>
-      <c r="V33">
-        <f t="shared" si="2"/>
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2975,7 +2573,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H34">
         <v>75.186000000000007</v>
@@ -3002,31 +2600,19 @@
         <v>17200000</v>
       </c>
       <c r="P34">
-        <f t="shared" si="0"/>
-        <v>17400000</v>
+        <v>8440000</v>
       </c>
       <c r="Q34">
         <v>8440000</v>
       </c>
       <c r="R34">
-        <v>8440000</v>
+        <v>17800000</v>
       </c>
       <c r="S34">
-        <f t="shared" si="1"/>
-        <v>8440000</v>
-      </c>
-      <c r="T34">
-        <v>17800000</v>
-      </c>
-      <c r="U34">
         <v>17100000</v>
       </c>
-      <c r="V34">
-        <f t="shared" si="2"/>
-        <v>17450000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -3040,13 +2626,13 @@
         <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H35">
         <v>70.474999999999994</v>
@@ -3073,31 +2659,19 @@
         <v>12000000</v>
       </c>
       <c r="P35">
-        <f t="shared" si="0"/>
-        <v>12500000</v>
+        <v>5790000</v>
       </c>
       <c r="Q35">
         <v>5790000</v>
       </c>
       <c r="R35">
-        <v>5790000</v>
+        <v>14600000</v>
       </c>
       <c r="S35">
-        <f t="shared" si="1"/>
-        <v>5790000</v>
-      </c>
-      <c r="T35">
-        <v>14600000</v>
-      </c>
-      <c r="U35">
         <v>14200000</v>
       </c>
-      <c r="V35">
-        <f t="shared" si="2"/>
-        <v>14400000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2</v>
       </c>
@@ -3111,13 +2685,13 @@
         <v>109</v>
       </c>
       <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" t="s">
         <v>80</v>
-      </c>
-      <c r="F36" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" t="s">
-        <v>78</v>
       </c>
       <c r="H36">
         <v>85.73</v>
@@ -3144,31 +2718,19 @@
         <v>35200000</v>
       </c>
       <c r="P36">
-        <f t="shared" si="0"/>
-        <v>36600000</v>
+        <v>14400000</v>
       </c>
       <c r="Q36">
         <v>14400000</v>
       </c>
       <c r="R36">
-        <v>14400000</v>
+        <v>24800000</v>
       </c>
       <c r="S36">
-        <f t="shared" si="1"/>
-        <v>14400000</v>
-      </c>
-      <c r="T36">
-        <v>24800000</v>
-      </c>
-      <c r="U36">
         <v>24100000</v>
       </c>
-      <c r="V36">
-        <f t="shared" si="2"/>
-        <v>24450000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3182,13 +2744,13 @@
         <v>109</v>
       </c>
       <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
         <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G37" t="s">
-        <v>77</v>
       </c>
       <c r="H37">
         <v>94.022999999999996</v>
@@ -3215,31 +2777,19 @@
         <v>32700000</v>
       </c>
       <c r="P37">
-        <f t="shared" si="0"/>
-        <v>34300000</v>
+        <v>13000000</v>
       </c>
       <c r="Q37">
         <v>13000000</v>
       </c>
       <c r="R37">
-        <v>13000000</v>
+        <v>24500000</v>
       </c>
       <c r="S37">
-        <f t="shared" si="1"/>
-        <v>13000000</v>
-      </c>
-      <c r="T37">
-        <v>24500000</v>
-      </c>
-      <c r="U37">
         <v>24000000</v>
       </c>
-      <c r="V37">
-        <f t="shared" si="2"/>
-        <v>24250000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3253,13 +2803,13 @@
         <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H38">
         <v>68.415999999999997</v>
@@ -3286,31 +2836,19 @@
         <v>15400000</v>
       </c>
       <c r="P38">
-        <f t="shared" si="0"/>
-        <v>16200000</v>
+        <v>7840000</v>
       </c>
       <c r="Q38">
         <v>7840000</v>
       </c>
       <c r="R38">
-        <v>7840000</v>
+        <v>16400000</v>
       </c>
       <c r="S38">
-        <f t="shared" si="1"/>
-        <v>7840000</v>
-      </c>
-      <c r="T38">
-        <v>16400000</v>
-      </c>
-      <c r="U38">
         <v>16100000</v>
       </c>
-      <c r="V38">
-        <f t="shared" si="2"/>
-        <v>16250000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3324,13 +2862,13 @@
         <v>112</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" t="s">
         <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" t="s">
-        <v>77</v>
       </c>
       <c r="H39">
         <v>77.897999999999996</v>
@@ -3357,31 +2895,19 @@
         <v>5230000</v>
       </c>
       <c r="P39">
-        <f t="shared" si="0"/>
-        <v>5490000</v>
+        <v>3770000</v>
       </c>
       <c r="Q39">
         <v>3770000</v>
       </c>
       <c r="R39">
-        <v>3770000</v>
+        <v>10800000</v>
       </c>
       <c r="S39">
-        <f t="shared" si="1"/>
-        <v>3770000</v>
-      </c>
-      <c r="T39">
-        <v>10800000</v>
-      </c>
-      <c r="U39">
         <v>9530000</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="2"/>
-        <v>10165000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3395,13 +2921,13 @@
         <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H40">
         <v>85.328999999999994</v>
@@ -3428,31 +2954,19 @@
         <v>25200000</v>
       </c>
       <c r="P40">
-        <f t="shared" si="0"/>
-        <v>26200000</v>
+        <v>7080000</v>
       </c>
       <c r="Q40">
         <v>7080000</v>
       </c>
       <c r="R40">
-        <v>7080000</v>
+        <v>12000000</v>
       </c>
       <c r="S40">
-        <f t="shared" si="1"/>
-        <v>7080000</v>
-      </c>
-      <c r="T40">
-        <v>12000000</v>
-      </c>
-      <c r="U40">
         <v>11600000</v>
       </c>
-      <c r="V40">
-        <f t="shared" si="2"/>
-        <v>11800000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3466,13 +2980,13 @@
         <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H41">
         <v>97.760999999999996</v>
@@ -3499,31 +3013,19 @@
         <v>10800000</v>
       </c>
       <c r="P41">
-        <f t="shared" si="0"/>
-        <v>11300000</v>
+        <v>6470000</v>
       </c>
       <c r="Q41">
-        <v>6470000</v>
+        <v>6870000</v>
       </c>
       <c r="R41">
-        <v>6870000</v>
+        <v>16200000</v>
       </c>
       <c r="S41">
-        <f t="shared" si="1"/>
-        <v>6670000</v>
-      </c>
-      <c r="T41">
-        <v>16200000</v>
-      </c>
-      <c r="U41">
         <v>17600000</v>
       </c>
-      <c r="V41">
-        <f t="shared" si="2"/>
-        <v>16900000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3534,7 +3036,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H42">
         <v>93.119</v>
@@ -3561,31 +3063,19 @@
         <v>17000000</v>
       </c>
       <c r="P42">
-        <f t="shared" si="0"/>
-        <v>17550000</v>
+        <v>8320000</v>
       </c>
       <c r="Q42">
-        <v>8320000</v>
+        <v>8910000</v>
       </c>
       <c r="R42">
-        <v>8910000</v>
+        <v>17700000</v>
       </c>
       <c r="S42">
-        <f t="shared" si="1"/>
-        <v>8615000</v>
-      </c>
-      <c r="T42">
-        <v>17700000</v>
-      </c>
-      <c r="U42">
         <v>18700000</v>
       </c>
-      <c r="V42">
-        <f t="shared" si="2"/>
-        <v>18200000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3599,13 +3089,13 @@
         <v>112</v>
       </c>
       <c r="E43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
         <v>80</v>
-      </c>
-      <c r="F43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" t="s">
-        <v>78</v>
       </c>
       <c r="H43">
         <v>96.119</v>
@@ -3632,31 +3122,19 @@
         <v>18500000</v>
       </c>
       <c r="P43">
-        <f t="shared" si="0"/>
-        <v>18550000</v>
+        <v>10900000</v>
       </c>
       <c r="Q43">
         <v>10900000</v>
       </c>
       <c r="R43">
-        <v>10900000</v>
+        <v>18600000</v>
       </c>
       <c r="S43">
-        <f t="shared" si="1"/>
-        <v>10900000</v>
-      </c>
-      <c r="T43">
-        <v>18600000</v>
-      </c>
-      <c r="U43">
         <v>16200000</v>
       </c>
-      <c r="V43">
-        <f t="shared" si="2"/>
-        <v>17400000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3670,13 +3148,13 @@
         <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H44">
         <v>103.42</v>
@@ -3703,31 +3181,19 @@
         <v>3420000</v>
       </c>
       <c r="P44">
-        <f t="shared" si="0"/>
-        <v>3040000</v>
+        <v>9670000</v>
       </c>
       <c r="Q44">
         <v>9670000</v>
       </c>
       <c r="R44">
-        <v>9670000</v>
+        <v>19300000</v>
       </c>
       <c r="S44">
-        <f t="shared" si="1"/>
-        <v>9670000</v>
-      </c>
-      <c r="T44">
-        <v>19300000</v>
-      </c>
-      <c r="U44">
         <v>18900000</v>
       </c>
-      <c r="V44">
-        <f t="shared" si="2"/>
-        <v>19100000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3741,13 +3207,13 @@
         <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H45">
         <v>110.10299999999999</v>
@@ -3774,31 +3240,19 @@
         <v>11500000</v>
       </c>
       <c r="P45">
-        <f t="shared" si="0"/>
-        <v>11600000</v>
+        <v>21900000</v>
       </c>
       <c r="Q45">
         <v>21900000</v>
       </c>
       <c r="R45">
-        <v>21900000</v>
+        <v>26600000</v>
       </c>
       <c r="S45">
-        <f t="shared" si="1"/>
-        <v>21900000</v>
-      </c>
-      <c r="T45">
-        <v>26600000</v>
-      </c>
-      <c r="U45">
         <v>25900000</v>
       </c>
-      <c r="V45">
-        <f t="shared" si="2"/>
-        <v>26250000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3812,13 +3266,13 @@
         <v>113</v>
       </c>
       <c r="E46" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" t="s">
         <v>80</v>
-      </c>
-      <c r="F46" t="s">
-        <v>73</v>
-      </c>
-      <c r="G46" t="s">
-        <v>78</v>
       </c>
       <c r="H46">
         <v>136.78100000000001</v>
@@ -3845,31 +3299,19 @@
         <v>42500000</v>
       </c>
       <c r="P46">
-        <f t="shared" si="0"/>
-        <v>44500000</v>
+        <v>33800000</v>
       </c>
       <c r="Q46">
         <v>33800000</v>
       </c>
       <c r="R46">
-        <v>33800000</v>
+        <v>35100000</v>
       </c>
       <c r="S46">
-        <f t="shared" si="1"/>
-        <v>33800000</v>
-      </c>
-      <c r="T46">
-        <v>35100000</v>
-      </c>
-      <c r="U46">
         <v>34600000</v>
       </c>
-      <c r="V46">
-        <f t="shared" si="2"/>
-        <v>34850000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3883,13 +3325,13 @@
         <v>113</v>
       </c>
       <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" t="s">
         <v>79</v>
-      </c>
-      <c r="F47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" t="s">
-        <v>77</v>
       </c>
       <c r="H47">
         <v>116.71899999999999</v>
@@ -3916,31 +3358,19 @@
         <v>3370000</v>
       </c>
       <c r="P47">
-        <f t="shared" si="0"/>
-        <v>3325000</v>
+        <v>10600000</v>
       </c>
       <c r="Q47">
-        <v>10600000</v>
+        <v>11300000</v>
       </c>
       <c r="R47">
-        <v>11300000</v>
+        <v>19700000</v>
       </c>
       <c r="S47">
-        <f t="shared" si="1"/>
-        <v>10950000</v>
-      </c>
-      <c r="T47">
-        <v>19700000</v>
-      </c>
-      <c r="U47">
         <v>17900000</v>
       </c>
-      <c r="V47">
-        <f t="shared" si="2"/>
-        <v>18800000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3951,7 +3381,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H48">
         <v>126.10299999999999</v>
@@ -3978,31 +3408,19 @@
         <v>15800000</v>
       </c>
       <c r="P48">
-        <f t="shared" si="0"/>
-        <v>17300000</v>
+        <v>7100000</v>
       </c>
       <c r="Q48">
         <v>7100000</v>
       </c>
       <c r="R48">
-        <v>7100000</v>
+        <v>20200000</v>
       </c>
       <c r="S48">
-        <f t="shared" si="1"/>
-        <v>7100000</v>
-      </c>
-      <c r="T48">
-        <v>20200000</v>
-      </c>
-      <c r="U48">
         <v>19800000</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="2"/>
-        <v>20000000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4013,7 +3431,7 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H49">
         <v>157.06200000000001</v>
@@ -4040,31 +3458,19 @@
         <v>18000000</v>
       </c>
       <c r="P49">
-        <f t="shared" si="0"/>
-        <v>18950000</v>
+        <v>7070000</v>
       </c>
       <c r="Q49">
-        <v>7070000</v>
+        <v>7680000</v>
       </c>
       <c r="R49">
-        <v>7680000</v>
+        <v>16300000</v>
       </c>
       <c r="S49">
-        <f t="shared" si="1"/>
-        <v>7375000</v>
-      </c>
-      <c r="T49">
-        <v>16300000</v>
-      </c>
-      <c r="U49">
         <v>15800000</v>
       </c>
-      <c r="V49">
-        <f t="shared" si="2"/>
-        <v>16050000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4078,13 +3484,13 @@
         <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H50">
         <v>150.90299999999999</v>
@@ -4111,31 +3517,19 @@
         <v>6980000</v>
       </c>
       <c r="P50">
-        <f t="shared" si="0"/>
-        <v>7830000</v>
+        <v>6030000</v>
       </c>
       <c r="Q50">
         <v>6030000</v>
       </c>
       <c r="R50">
-        <v>6030000</v>
+        <v>17300000</v>
       </c>
       <c r="S50">
-        <f t="shared" si="1"/>
-        <v>6030000</v>
-      </c>
-      <c r="T50">
-        <v>17300000</v>
-      </c>
-      <c r="U50">
         <v>15800000</v>
       </c>
-      <c r="V50">
-        <f t="shared" si="2"/>
-        <v>16550000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>3</v>
       </c>
@@ -4149,13 +3543,13 @@
         <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H51">
         <v>144.249</v>
@@ -4182,31 +3576,19 @@
         <v>10300000</v>
       </c>
       <c r="P51">
-        <f t="shared" si="0"/>
-        <v>10800000</v>
+        <v>12000000</v>
       </c>
       <c r="Q51">
         <v>12000000</v>
       </c>
       <c r="R51">
-        <v>12000000</v>
+        <v>20900000</v>
       </c>
       <c r="S51">
-        <f t="shared" si="1"/>
-        <v>12000000</v>
-      </c>
-      <c r="T51">
-        <v>20900000</v>
-      </c>
-      <c r="U51">
         <v>20400000</v>
       </c>
-      <c r="V51">
-        <f t="shared" si="2"/>
-        <v>20650000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>3</v>
       </c>
@@ -4220,13 +3602,13 @@
         <v>114</v>
       </c>
       <c r="E52" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
         <v>79</v>
-      </c>
-      <c r="F52" t="s">
-        <v>74</v>
-      </c>
-      <c r="G52" t="s">
-        <v>77</v>
       </c>
       <c r="H52">
         <v>147.81299999999999</v>
@@ -4253,31 +3635,19 @@
         <v>13600000</v>
       </c>
       <c r="P52">
-        <f t="shared" si="0"/>
-        <v>14200000</v>
+        <v>11300000</v>
       </c>
       <c r="Q52">
-        <v>11300000</v>
+        <v>10600000</v>
       </c>
       <c r="R52">
-        <v>10600000</v>
+        <v>21800000</v>
       </c>
       <c r="S52">
-        <f t="shared" si="1"/>
-        <v>10950000</v>
-      </c>
-      <c r="T52">
-        <v>21800000</v>
-      </c>
-      <c r="U52">
         <v>21200000</v>
       </c>
-      <c r="V52">
-        <f t="shared" si="2"/>
-        <v>21500000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>3</v>
       </c>
@@ -4291,13 +3661,13 @@
         <v>114</v>
       </c>
       <c r="E53" t="s">
+        <v>75</v>
+      </c>
+      <c r="F53" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" t="s">
         <v>80</v>
-      </c>
-      <c r="F53" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" t="s">
-        <v>78</v>
       </c>
       <c r="H53">
         <v>140.64599999999999</v>
@@ -4324,31 +3694,19 @@
         <v>24500000</v>
       </c>
       <c r="P53">
-        <f t="shared" si="0"/>
-        <v>25900000</v>
+        <v>16400000</v>
       </c>
       <c r="Q53">
         <v>16400000</v>
       </c>
       <c r="R53">
-        <v>16400000</v>
+        <v>23700000</v>
       </c>
       <c r="S53">
-        <f t="shared" si="1"/>
-        <v>16400000</v>
-      </c>
-      <c r="T53">
-        <v>23700000</v>
-      </c>
-      <c r="U53">
         <v>23100000</v>
       </c>
-      <c r="V53">
-        <f t="shared" si="2"/>
-        <v>23400000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3</v>
       </c>
@@ -4359,7 +3717,7 @@
         <v>15</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H54">
         <v>135.91499999999999</v>
@@ -4386,31 +3744,19 @@
         <v>21000000</v>
       </c>
       <c r="P54">
-        <f t="shared" si="0"/>
-        <v>22650000</v>
+        <v>8180000</v>
       </c>
       <c r="Q54">
         <v>8180000</v>
       </c>
       <c r="R54">
-        <v>8180000</v>
+        <v>18500000</v>
       </c>
       <c r="S54">
-        <f t="shared" si="1"/>
-        <v>8180000</v>
-      </c>
-      <c r="T54">
-        <v>18500000</v>
-      </c>
-      <c r="U54">
         <v>17900000</v>
       </c>
-      <c r="V54">
-        <f t="shared" si="2"/>
-        <v>18200000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>3</v>
       </c>
@@ -4424,13 +3770,13 @@
         <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G55" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H55">
         <v>153.053</v>
@@ -4457,31 +3803,19 @@
         <v>51700000</v>
       </c>
       <c r="P55">
-        <f t="shared" si="0"/>
-        <v>54450000</v>
+        <v>18300000</v>
       </c>
       <c r="Q55">
         <v>18300000</v>
       </c>
       <c r="R55">
-        <v>18300000</v>
+        <v>33600000</v>
       </c>
       <c r="S55">
-        <f t="shared" si="1"/>
-        <v>18300000</v>
-      </c>
-      <c r="T55">
-        <v>33600000</v>
-      </c>
-      <c r="U55">
         <v>32800000</v>
       </c>
-      <c r="V55">
-        <f t="shared" si="2"/>
-        <v>33200000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4495,13 +3829,13 @@
         <v>115</v>
       </c>
       <c r="E56" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G56" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H56">
         <v>149.59399999999999</v>
@@ -4528,31 +3862,19 @@
         <v>11700000</v>
       </c>
       <c r="P56">
-        <f t="shared" si="0"/>
-        <v>12500000</v>
+        <v>5310000</v>
       </c>
       <c r="Q56">
         <v>5310000</v>
       </c>
       <c r="R56">
-        <v>5310000</v>
+        <v>24900000</v>
       </c>
       <c r="S56">
-        <f t="shared" si="1"/>
-        <v>5310000</v>
-      </c>
-      <c r="T56">
-        <v>24900000</v>
-      </c>
-      <c r="U56">
         <v>24500000</v>
       </c>
-      <c r="V56">
-        <f t="shared" si="2"/>
-        <v>24700000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4566,13 +3888,13 @@
         <v>115</v>
       </c>
       <c r="E57" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" t="s">
         <v>79</v>
-      </c>
-      <c r="F57" t="s">
-        <v>74</v>
-      </c>
-      <c r="G57" t="s">
-        <v>77</v>
       </c>
       <c r="H57">
         <v>130.971</v>
@@ -4599,31 +3921,19 @@
         <v>7500000</v>
       </c>
       <c r="P57">
-        <f t="shared" si="0"/>
-        <v>7920000</v>
+        <v>4360000</v>
       </c>
       <c r="Q57">
-        <v>4360000</v>
+        <v>4380000</v>
       </c>
       <c r="R57">
-        <v>4380000</v>
+        <v>17400000</v>
       </c>
       <c r="S57">
-        <f t="shared" si="1"/>
-        <v>4370000</v>
-      </c>
-      <c r="T57">
-        <v>17400000</v>
-      </c>
-      <c r="U57">
         <v>16700000</v>
       </c>
-      <c r="V57">
-        <f t="shared" si="2"/>
-        <v>17050000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4637,13 +3947,13 @@
         <v>115</v>
       </c>
       <c r="E58" t="s">
+        <v>75</v>
+      </c>
+      <c r="F58" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" t="s">
         <v>80</v>
-      </c>
-      <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s">
-        <v>78</v>
       </c>
       <c r="H58">
         <v>122.63200000000001</v>
@@ -4670,31 +3980,19 @@
         <v>16800000</v>
       </c>
       <c r="P58">
-        <f t="shared" si="0"/>
-        <v>17550000</v>
+        <v>8420000</v>
       </c>
       <c r="Q58">
-        <v>8420000</v>
+        <v>9130000</v>
       </c>
       <c r="R58">
-        <v>9130000</v>
+        <v>22900000</v>
       </c>
       <c r="S58">
-        <f t="shared" si="1"/>
-        <v>8775000</v>
-      </c>
-      <c r="T58">
-        <v>22900000</v>
-      </c>
-      <c r="U58">
         <v>22300000</v>
       </c>
-      <c r="V58">
-        <f t="shared" si="2"/>
-        <v>22600000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4708,13 +4006,13 @@
         <v>116</v>
       </c>
       <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" t="s">
         <v>80</v>
-      </c>
-      <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s">
-        <v>78</v>
       </c>
       <c r="H59">
         <v>138.88900000000001</v>
@@ -4741,31 +4039,19 @@
         <v>17400000</v>
       </c>
       <c r="P59">
-        <f t="shared" si="0"/>
-        <v>18600000</v>
+        <v>7250000</v>
       </c>
       <c r="Q59">
-        <v>7250000</v>
+        <v>7470000</v>
       </c>
       <c r="R59">
-        <v>7470000</v>
+        <v>30100000</v>
       </c>
       <c r="S59">
-        <f t="shared" si="1"/>
-        <v>7360000</v>
-      </c>
-      <c r="T59">
-        <v>30100000</v>
-      </c>
-      <c r="U59">
         <v>29500000</v>
       </c>
-      <c r="V59">
-        <f t="shared" si="2"/>
-        <v>29800000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4776,7 +4062,7 @@
         <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H60">
         <v>137.23099999999999</v>
@@ -4803,31 +4089,19 @@
         <v>22400000</v>
       </c>
       <c r="P60">
-        <f t="shared" si="0"/>
-        <v>23850000</v>
+        <v>8080000</v>
       </c>
       <c r="Q60">
         <v>8080000</v>
       </c>
       <c r="R60">
-        <v>8080000</v>
+        <v>22600000</v>
       </c>
       <c r="S60">
-        <f t="shared" si="1"/>
-        <v>8080000</v>
-      </c>
-      <c r="T60">
-        <v>22600000</v>
-      </c>
-      <c r="U60">
         <v>24300000</v>
       </c>
-      <c r="V60">
-        <f t="shared" si="2"/>
-        <v>23450000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4841,13 +4115,13 @@
         <v>116</v>
       </c>
       <c r="E61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H61">
         <v>130.952</v>
@@ -4874,31 +4148,19 @@
         <v>7520000</v>
       </c>
       <c r="P61">
-        <f t="shared" si="0"/>
-        <v>7890000</v>
+        <v>4010000</v>
       </c>
       <c r="Q61">
         <v>4010000</v>
       </c>
       <c r="R61">
-        <v>4010000</v>
+        <v>17200000</v>
       </c>
       <c r="S61">
-        <f t="shared" si="1"/>
-        <v>4010000</v>
-      </c>
-      <c r="T61">
-        <v>17200000</v>
-      </c>
-      <c r="U61">
         <v>17900000</v>
       </c>
-      <c r="V61">
-        <f t="shared" si="2"/>
-        <v>17550000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4912,13 +4174,13 @@
         <v>116</v>
       </c>
       <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" t="s">
+        <v>68</v>
+      </c>
+      <c r="G62" t="s">
         <v>79</v>
-      </c>
-      <c r="F62" t="s">
-        <v>71</v>
-      </c>
-      <c r="G62" t="s">
-        <v>77</v>
       </c>
       <c r="H62">
         <v>138.08600000000001</v>
@@ -4945,31 +4207,19 @@
         <v>8190000</v>
       </c>
       <c r="P62">
-        <f t="shared" si="0"/>
-        <v>8580000</v>
+        <v>7770000</v>
       </c>
       <c r="Q62">
-        <v>7770000</v>
+        <v>8290000</v>
       </c>
       <c r="R62">
-        <v>8290000</v>
+        <v>22600000</v>
       </c>
       <c r="S62">
-        <f t="shared" si="1"/>
-        <v>8030000</v>
-      </c>
-      <c r="T62">
-        <v>22600000</v>
-      </c>
-      <c r="U62">
         <v>22300000</v>
       </c>
-      <c r="V62">
-        <f t="shared" si="2"/>
-        <v>22450000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4983,13 +4233,13 @@
         <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H63">
         <v>129.404</v>
@@ -5016,31 +4266,19 @@
         <v>13700000</v>
       </c>
       <c r="P63">
-        <f t="shared" si="0"/>
-        <v>14400000</v>
+        <v>16300000</v>
       </c>
       <c r="Q63">
-        <v>16300000</v>
+        <v>17600000</v>
       </c>
       <c r="R63">
-        <v>17600000</v>
+        <v>33300000</v>
       </c>
       <c r="S63">
-        <f t="shared" si="1"/>
-        <v>16950000</v>
-      </c>
-      <c r="T63">
-        <v>33300000</v>
-      </c>
-      <c r="U63">
         <v>29000000</v>
       </c>
-      <c r="V63">
-        <f t="shared" si="2"/>
-        <v>31150000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>4</v>
       </c>
@@ -5051,7 +4289,7 @@
         <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H64">
         <v>123.188</v>
@@ -5078,31 +4316,19 @@
         <v>17800000</v>
       </c>
       <c r="P64">
-        <f t="shared" si="0"/>
-        <v>18500000</v>
+        <v>7280000</v>
       </c>
       <c r="Q64">
         <v>7280000</v>
       </c>
       <c r="R64">
-        <v>7280000</v>
+        <v>18800000</v>
       </c>
       <c r="S64">
-        <f t="shared" si="1"/>
-        <v>7280000</v>
-      </c>
-      <c r="T64">
-        <v>18800000</v>
-      </c>
-      <c r="U64">
         <v>18600000</v>
       </c>
-      <c r="V64">
-        <f t="shared" si="2"/>
-        <v>18700000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>4</v>
       </c>
@@ -5116,13 +4342,13 @@
         <v>106</v>
       </c>
       <c r="E65" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" t="s">
         <v>79</v>
-      </c>
-      <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s">
-        <v>77</v>
       </c>
       <c r="H65">
         <v>98.007999999999996</v>
@@ -5149,31 +4375,19 @@
         <v>3910000</v>
       </c>
       <c r="P65">
-        <f t="shared" si="0"/>
-        <v>4095000</v>
+        <v>5100000</v>
       </c>
       <c r="Q65">
         <v>5100000</v>
       </c>
       <c r="R65">
-        <v>5100000</v>
+        <v>15700000</v>
       </c>
       <c r="S65">
-        <f t="shared" si="1"/>
-        <v>5100000</v>
-      </c>
-      <c r="T65">
-        <v>15700000</v>
-      </c>
-      <c r="U65">
         <v>16500000</v>
       </c>
-      <c r="V65">
-        <f t="shared" si="2"/>
-        <v>16100000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>4</v>
       </c>
@@ -5187,13 +4401,13 @@
         <v>106</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F66" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G66" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H66">
         <v>136.62700000000001</v>
@@ -5220,31 +4434,19 @@
         <v>14800000</v>
       </c>
       <c r="P66">
-        <f t="shared" si="0"/>
-        <v>14950000</v>
+        <v>7120000</v>
       </c>
       <c r="Q66">
         <v>7120000</v>
       </c>
       <c r="R66">
-        <v>7120000</v>
+        <v>22000000</v>
       </c>
       <c r="S66">
-        <f t="shared" si="1"/>
-        <v>7120000</v>
-      </c>
-      <c r="T66">
-        <v>22000000</v>
-      </c>
-      <c r="U66">
         <v>21500000</v>
       </c>
-      <c r="V66">
-        <f t="shared" si="2"/>
-        <v>21750000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>4</v>
       </c>
@@ -5258,13 +4460,13 @@
         <v>106</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H67">
         <v>117.036</v>
@@ -5291,31 +4493,19 @@
         <v>5010000</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P126" si="3">AVERAGE(N67,O67)</f>
-        <v>5630000</v>
+        <v>5340000</v>
       </c>
       <c r="Q67">
-        <v>5340000</v>
+        <v>5640000</v>
       </c>
       <c r="R67">
-        <v>5640000</v>
+        <v>18900000</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S126" si="4">AVERAGE(Q67,R67)</f>
-        <v>5490000</v>
-      </c>
-      <c r="T67">
-        <v>18900000</v>
-      </c>
-      <c r="U67">
         <v>16900000</v>
       </c>
-      <c r="V67">
-        <f t="shared" ref="V67:V126" si="5">AVERAGE(T67,U67)</f>
-        <v>17900000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4</v>
       </c>
@@ -5329,13 +4519,13 @@
         <v>106</v>
       </c>
       <c r="E68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" t="s">
         <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
       </c>
       <c r="H68">
         <v>110.38500000000001</v>
@@ -5362,31 +4552,19 @@
         <v>3950000</v>
       </c>
       <c r="P68">
-        <f t="shared" si="3"/>
-        <v>4380000</v>
+        <v>2130000</v>
       </c>
       <c r="Q68">
         <v>2130000</v>
       </c>
       <c r="R68">
-        <v>2130000</v>
+        <v>9920000</v>
       </c>
       <c r="S68">
-        <f t="shared" si="4"/>
-        <v>2130000</v>
-      </c>
-      <c r="T68">
-        <v>9920000</v>
-      </c>
-      <c r="U68">
         <v>8720000</v>
       </c>
-      <c r="V68">
-        <f t="shared" si="5"/>
-        <v>9320000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4</v>
       </c>
@@ -5397,7 +4575,7 @@
         <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H69">
         <v>124.97799999999999</v>
@@ -5424,31 +4602,19 @@
         <v>23300000</v>
       </c>
       <c r="P69">
-        <f t="shared" si="3"/>
-        <v>24500000</v>
+        <v>7940000</v>
       </c>
       <c r="Q69">
-        <v>7940000</v>
+        <v>8420000</v>
       </c>
       <c r="R69">
-        <v>8420000</v>
+        <v>17800000</v>
       </c>
       <c r="S69">
-        <f t="shared" si="4"/>
-        <v>8180000</v>
-      </c>
-      <c r="T69">
-        <v>17800000</v>
-      </c>
-      <c r="U69">
         <v>17300000</v>
       </c>
-      <c r="V69">
-        <f t="shared" si="5"/>
-        <v>17550000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4</v>
       </c>
@@ -5462,13 +4628,13 @@
         <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H70">
         <v>110.67700000000001</v>
@@ -5495,31 +4661,19 @@
         <v>10600000</v>
       </c>
       <c r="P70">
-        <f t="shared" si="3"/>
-        <v>11050000</v>
+        <v>9600000</v>
       </c>
       <c r="Q70">
         <v>9600000</v>
       </c>
       <c r="R70">
-        <v>9600000</v>
+        <v>22400000</v>
       </c>
       <c r="S70">
-        <f t="shared" si="4"/>
-        <v>9600000</v>
-      </c>
-      <c r="T70">
-        <v>22400000</v>
-      </c>
-      <c r="U70">
         <v>21800000</v>
       </c>
-      <c r="V70">
-        <f t="shared" si="5"/>
-        <v>22100000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>4</v>
       </c>
@@ -5533,13 +4687,13 @@
         <v>105</v>
       </c>
       <c r="E71" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" t="s">
         <v>79</v>
-      </c>
-      <c r="F71" t="s">
-        <v>74</v>
-      </c>
-      <c r="G71" t="s">
-        <v>77</v>
       </c>
       <c r="H71">
         <v>97.340999999999994</v>
@@ -5566,31 +4720,19 @@
         <v>7150000</v>
       </c>
       <c r="P71">
-        <f t="shared" si="3"/>
-        <v>7620000</v>
+        <v>10500000</v>
       </c>
       <c r="Q71">
         <v>10500000</v>
       </c>
       <c r="R71">
-        <v>10500000</v>
+        <v>24600000</v>
       </c>
       <c r="S71">
-        <f t="shared" si="4"/>
-        <v>10500000</v>
-      </c>
-      <c r="T71">
-        <v>24600000</v>
-      </c>
-      <c r="U71">
         <v>23900000</v>
       </c>
-      <c r="V71">
-        <f t="shared" si="5"/>
-        <v>24250000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>4</v>
       </c>
@@ -5604,13 +4746,13 @@
         <v>105</v>
       </c>
       <c r="E72" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F72" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H72">
         <v>85.727000000000004</v>
@@ -5637,31 +4779,19 @@
         <v>12000000</v>
       </c>
       <c r="P72">
-        <f t="shared" si="3"/>
-        <v>12550000</v>
+        <v>5240000</v>
       </c>
       <c r="Q72">
         <v>5240000</v>
       </c>
       <c r="R72">
-        <v>5240000</v>
+        <v>16300000</v>
       </c>
       <c r="S72">
-        <f t="shared" si="4"/>
-        <v>5240000</v>
-      </c>
-      <c r="T72">
-        <v>16300000</v>
-      </c>
-      <c r="U72">
         <v>17300000</v>
       </c>
-      <c r="V72">
-        <f t="shared" si="5"/>
-        <v>16800000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5675,13 +4805,13 @@
         <v>105</v>
       </c>
       <c r="E73" t="s">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" t="s">
         <v>80</v>
-      </c>
-      <c r="F73" t="s">
-        <v>72</v>
-      </c>
-      <c r="G73" t="s">
-        <v>78</v>
       </c>
       <c r="H73">
         <v>60.067999999999998</v>
@@ -5708,31 +4838,19 @@
         <v>26900000</v>
       </c>
       <c r="P73">
-        <f t="shared" si="3"/>
-        <v>28450000</v>
+        <v>19300000</v>
       </c>
       <c r="Q73">
         <v>19300000</v>
       </c>
       <c r="R73">
-        <v>19300000</v>
+        <v>29100000</v>
       </c>
       <c r="S73">
-        <f t="shared" si="4"/>
-        <v>19300000</v>
-      </c>
-      <c r="T73">
-        <v>29100000</v>
-      </c>
-      <c r="U73">
         <v>28500000</v>
       </c>
-      <c r="V73">
-        <f t="shared" si="5"/>
-        <v>28800000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5746,13 +4864,13 @@
         <v>103</v>
       </c>
       <c r="E74" t="s">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s">
+        <v>69</v>
+      </c>
+      <c r="G74" t="s">
         <v>80</v>
-      </c>
-      <c r="F74" t="s">
-        <v>72</v>
-      </c>
-      <c r="G74" t="s">
-        <v>78</v>
       </c>
       <c r="H74">
         <v>87.814999999999998</v>
@@ -5779,31 +4897,19 @@
         <v>47500000</v>
       </c>
       <c r="P74">
-        <f t="shared" si="3"/>
-        <v>49400000</v>
+        <v>18600000</v>
       </c>
       <c r="Q74">
         <v>18600000</v>
       </c>
       <c r="R74">
-        <v>18600000</v>
+        <v>35900000</v>
       </c>
       <c r="S74">
-        <f t="shared" si="4"/>
-        <v>18600000</v>
-      </c>
-      <c r="T74">
-        <v>35900000</v>
-      </c>
-      <c r="U74">
         <v>35000000</v>
       </c>
-      <c r="V74">
-        <f t="shared" si="5"/>
-        <v>35450000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4</v>
       </c>
@@ -5817,13 +4923,13 @@
         <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H75">
         <v>86.442999999999998</v>
@@ -5850,31 +4956,19 @@
         <v>22800000</v>
       </c>
       <c r="P75">
-        <f t="shared" si="3"/>
-        <v>23900000</v>
+        <v>6500000</v>
       </c>
       <c r="Q75">
         <v>6500000</v>
       </c>
       <c r="R75">
-        <v>6500000</v>
+        <v>28000000</v>
       </c>
       <c r="S75">
-        <f t="shared" si="4"/>
-        <v>6500000</v>
-      </c>
-      <c r="T75">
-        <v>28000000</v>
-      </c>
-      <c r="U75">
         <v>27200000</v>
       </c>
-      <c r="V75">
-        <f t="shared" si="5"/>
-        <v>27600000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5888,13 +4982,13 @@
         <v>103</v>
       </c>
       <c r="E76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" t="s">
         <v>79</v>
-      </c>
-      <c r="F76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G76" t="s">
-        <v>77</v>
       </c>
       <c r="H76">
         <v>105.58</v>
@@ -5921,31 +5015,19 @@
         <v>8390000</v>
       </c>
       <c r="P76">
-        <f t="shared" si="3"/>
-        <v>8785000</v>
+        <v>5240000</v>
       </c>
       <c r="Q76">
         <v>5240000</v>
       </c>
       <c r="R76">
-        <v>5240000</v>
+        <v>15700000</v>
       </c>
       <c r="S76">
-        <f t="shared" si="4"/>
-        <v>5240000</v>
-      </c>
-      <c r="T76">
-        <v>15700000</v>
-      </c>
-      <c r="U76">
         <v>15300000</v>
       </c>
-      <c r="V76">
-        <f t="shared" si="5"/>
-        <v>15500000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5956,7 +5038,7 @@
         <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H77">
         <v>105.81</v>
@@ -5983,31 +5065,19 @@
         <v>24200000</v>
       </c>
       <c r="P77">
-        <f t="shared" si="3"/>
-        <v>24300000</v>
+        <v>8090000</v>
       </c>
       <c r="Q77">
-        <v>8090000</v>
+        <v>8550000</v>
       </c>
       <c r="R77">
-        <v>8550000</v>
+        <v>19200000</v>
       </c>
       <c r="S77">
-        <f t="shared" si="4"/>
-        <v>8320000</v>
-      </c>
-      <c r="T77">
-        <v>19200000</v>
-      </c>
-      <c r="U77">
         <v>20400000</v>
       </c>
-      <c r="V77">
-        <f t="shared" si="5"/>
-        <v>19800000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>4</v>
       </c>
@@ -6021,13 +5091,13 @@
         <v>103</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G78" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H78">
         <v>95.709000000000003</v>
@@ -6054,31 +5124,19 @@
         <v>20100000</v>
       </c>
       <c r="P78">
-        <f t="shared" si="3"/>
-        <v>20300000</v>
+        <v>2340000</v>
       </c>
       <c r="Q78">
         <v>2340000</v>
       </c>
       <c r="R78">
-        <v>2340000</v>
+        <v>11600000</v>
       </c>
       <c r="S78">
-        <f t="shared" si="4"/>
-        <v>2340000</v>
-      </c>
-      <c r="T78">
-        <v>11600000</v>
-      </c>
-      <c r="U78">
         <v>11300000</v>
       </c>
-      <c r="V78">
-        <f t="shared" si="5"/>
-        <v>11450000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>4</v>
       </c>
@@ -6092,13 +5150,13 @@
         <v>102</v>
       </c>
       <c r="E79" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G79" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H79">
         <v>87.421999999999997</v>
@@ -6125,31 +5183,19 @@
         <v>6560000</v>
       </c>
       <c r="P79">
-        <f t="shared" si="3"/>
-        <v>7000000</v>
+        <v>5200000</v>
       </c>
       <c r="Q79">
         <v>5200000</v>
       </c>
       <c r="R79">
-        <v>5200000</v>
+        <v>14100000</v>
       </c>
       <c r="S79">
-        <f t="shared" si="4"/>
-        <v>5200000</v>
-      </c>
-      <c r="T79">
-        <v>14100000</v>
-      </c>
-      <c r="U79">
         <v>13800000</v>
       </c>
-      <c r="V79">
-        <f t="shared" si="5"/>
-        <v>13950000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>4</v>
       </c>
@@ -6163,13 +5209,13 @@
         <v>102</v>
       </c>
       <c r="E80" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" t="s">
+        <v>68</v>
+      </c>
+      <c r="G80" t="s">
         <v>79</v>
-      </c>
-      <c r="F80" t="s">
-        <v>71</v>
-      </c>
-      <c r="G80" t="s">
-        <v>77</v>
       </c>
       <c r="H80">
         <v>111.20399999999999</v>
@@ -6196,31 +5242,19 @@
         <v>12400000</v>
       </c>
       <c r="P80">
-        <f t="shared" si="3"/>
-        <v>12650000</v>
+        <v>7790000</v>
       </c>
       <c r="Q80">
         <v>7790000</v>
       </c>
       <c r="R80">
-        <v>7790000</v>
+        <v>14000000</v>
       </c>
       <c r="S80">
-        <f t="shared" si="4"/>
-        <v>7790000</v>
-      </c>
-      <c r="T80">
-        <v>14000000</v>
-      </c>
-      <c r="U80">
         <v>15100000</v>
       </c>
-      <c r="V80">
-        <f t="shared" si="5"/>
-        <v>14550000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>4</v>
       </c>
@@ -6234,13 +5268,13 @@
         <v>102</v>
       </c>
       <c r="E81" t="s">
+        <v>75</v>
+      </c>
+      <c r="F81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" t="s">
         <v>80</v>
-      </c>
-      <c r="F81" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" t="s">
-        <v>78</v>
       </c>
       <c r="H81">
         <v>88.915000000000006</v>
@@ -6267,31 +5301,19 @@
         <v>54800000</v>
       </c>
       <c r="P81">
-        <f t="shared" si="3"/>
-        <v>58700000</v>
+        <v>7660000</v>
       </c>
       <c r="Q81">
         <v>7660000</v>
       </c>
       <c r="R81">
-        <v>7660000</v>
+        <v>26000000</v>
       </c>
       <c r="S81">
-        <f t="shared" si="4"/>
-        <v>7660000</v>
-      </c>
-      <c r="T81">
-        <v>26000000</v>
-      </c>
-      <c r="U81">
         <v>28200000</v>
       </c>
-      <c r="V81">
-        <f t="shared" si="5"/>
-        <v>27100000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>4</v>
       </c>
@@ -6305,13 +5327,13 @@
         <v>102</v>
       </c>
       <c r="E82" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F82" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H82">
         <v>106.563</v>
@@ -6338,31 +5360,19 @@
         <v>61200000</v>
       </c>
       <c r="P82">
-        <f t="shared" si="3"/>
-        <v>63250000</v>
+        <v>11000000</v>
       </c>
       <c r="Q82">
         <v>11000000</v>
       </c>
       <c r="R82">
-        <v>11000000</v>
+        <v>28600000</v>
       </c>
       <c r="S82">
-        <f t="shared" si="4"/>
-        <v>11000000</v>
-      </c>
-      <c r="T82">
-        <v>28600000</v>
-      </c>
-      <c r="U82">
         <v>30400000</v>
       </c>
-      <c r="V82">
-        <f t="shared" si="5"/>
-        <v>29500000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>4</v>
       </c>
@@ -6373,7 +5383,7 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H83">
         <v>97.793000000000006</v>
@@ -6400,31 +5410,19 @@
         <v>21900000</v>
       </c>
       <c r="P83">
-        <f t="shared" si="3"/>
-        <v>23700000</v>
+        <v>8050000</v>
       </c>
       <c r="Q83">
         <v>8050000</v>
       </c>
       <c r="R83">
-        <v>8050000</v>
+        <v>20700000</v>
       </c>
       <c r="S83">
-        <f t="shared" si="4"/>
-        <v>8050000</v>
-      </c>
-      <c r="T83">
-        <v>20700000</v>
-      </c>
-      <c r="U83">
         <v>18600000</v>
       </c>
-      <c r="V83">
-        <f t="shared" si="5"/>
-        <v>19650000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>4</v>
       </c>
@@ -6438,13 +5436,13 @@
         <v>101</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F84" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G84" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H84">
         <v>112.023</v>
@@ -6471,31 +5469,19 @@
         <v>11900000</v>
       </c>
       <c r="P84">
-        <f t="shared" si="3"/>
-        <v>12450000</v>
+        <v>5080000</v>
       </c>
       <c r="Q84">
         <v>5080000</v>
       </c>
       <c r="R84">
-        <v>5080000</v>
+        <v>24400000</v>
       </c>
       <c r="S84">
-        <f t="shared" si="4"/>
-        <v>5080000</v>
-      </c>
-      <c r="T84">
-        <v>24400000</v>
-      </c>
-      <c r="U84">
         <v>23800000</v>
       </c>
-      <c r="V84">
-        <f t="shared" si="5"/>
-        <v>24100000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>4</v>
       </c>
@@ -6509,13 +5495,13 @@
         <v>101</v>
       </c>
       <c r="E85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" t="s">
         <v>80</v>
-      </c>
-      <c r="F85" t="s">
-        <v>73</v>
-      </c>
-      <c r="G85" t="s">
-        <v>78</v>
       </c>
       <c r="H85">
         <v>134.404</v>
@@ -6542,31 +5528,19 @@
         <v>42800000</v>
       </c>
       <c r="P85">
-        <f t="shared" si="3"/>
-        <v>43450000</v>
+        <v>7910000</v>
       </c>
       <c r="Q85">
-        <v>7910000</v>
+        <v>7300000</v>
       </c>
       <c r="R85">
-        <v>7300000</v>
+        <v>34100000</v>
       </c>
       <c r="S85">
-        <f t="shared" si="4"/>
-        <v>7605000</v>
-      </c>
-      <c r="T85">
-        <v>34100000</v>
-      </c>
-      <c r="U85">
         <v>33400000</v>
       </c>
-      <c r="V85">
-        <f t="shared" si="5"/>
-        <v>33750000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>4</v>
       </c>
@@ -6580,13 +5554,13 @@
         <v>101</v>
       </c>
       <c r="E86" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G86" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H86">
         <v>134.45699999999999</v>
@@ -6613,31 +5587,19 @@
         <v>4430000</v>
       </c>
       <c r="P86">
-        <f t="shared" si="3"/>
-        <v>5810000</v>
+        <v>4090000</v>
       </c>
       <c r="Q86">
         <v>4090000</v>
       </c>
       <c r="R86">
-        <v>4090000</v>
+        <v>13800000</v>
       </c>
       <c r="S86">
-        <f t="shared" si="4"/>
-        <v>4090000</v>
-      </c>
-      <c r="T86">
-        <v>13800000</v>
-      </c>
-      <c r="U86">
         <v>13100000</v>
       </c>
-      <c r="V86">
-        <f t="shared" si="5"/>
-        <v>13450000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>4</v>
       </c>
@@ -6651,13 +5613,13 @@
         <v>101</v>
       </c>
       <c r="E87" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" t="s">
         <v>79</v>
-      </c>
-      <c r="F87" t="s">
-        <v>71</v>
-      </c>
-      <c r="G87" t="s">
-        <v>77</v>
       </c>
       <c r="H87">
         <v>136.839</v>
@@ -6684,31 +5646,19 @@
         <v>36300000</v>
       </c>
       <c r="P87">
-        <f t="shared" si="3"/>
-        <v>38250000</v>
+        <v>3820000</v>
       </c>
       <c r="Q87">
         <v>3820000</v>
       </c>
       <c r="R87">
-        <v>3820000</v>
+        <v>15200000</v>
       </c>
       <c r="S87">
-        <f t="shared" si="4"/>
-        <v>3820000</v>
-      </c>
-      <c r="T87">
-        <v>15200000</v>
-      </c>
-      <c r="U87">
         <v>14900000</v>
       </c>
-      <c r="V87">
-        <f t="shared" si="5"/>
-        <v>15050000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>5</v>
       </c>
@@ -6719,7 +5669,7 @@
         <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H88">
         <v>116.83799999999999</v>
@@ -6746,31 +5696,19 @@
         <v>14100000</v>
       </c>
       <c r="P88">
-        <f t="shared" si="3"/>
-        <v>14950000</v>
+        <v>8800000</v>
       </c>
       <c r="Q88">
         <v>8800000</v>
       </c>
       <c r="R88">
-        <v>8800000</v>
+        <v>23100000</v>
       </c>
       <c r="S88">
-        <f t="shared" si="4"/>
-        <v>8800000</v>
-      </c>
-      <c r="T88">
-        <v>23100000</v>
-      </c>
-      <c r="U88">
         <v>22700000</v>
       </c>
-      <c r="V88">
-        <f t="shared" si="5"/>
-        <v>22900000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>5</v>
       </c>
@@ -6784,13 +5722,13 @@
         <v>113</v>
       </c>
       <c r="E89" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" t="s">
         <v>79</v>
-      </c>
-      <c r="F89" t="s">
-        <v>71</v>
-      </c>
-      <c r="G89" t="s">
-        <v>77</v>
       </c>
       <c r="H89">
         <v>115.25</v>
@@ -6817,31 +5755,19 @@
         <v>1990000</v>
       </c>
       <c r="P89">
-        <f t="shared" si="3"/>
-        <v>2555000</v>
+        <v>12300000</v>
       </c>
       <c r="Q89">
         <v>12300000</v>
       </c>
       <c r="R89">
-        <v>12300000</v>
+        <v>19100000</v>
       </c>
       <c r="S89">
-        <f t="shared" si="4"/>
-        <v>12300000</v>
-      </c>
-      <c r="T89">
-        <v>19100000</v>
-      </c>
-      <c r="U89">
         <v>19400000</v>
       </c>
-      <c r="V89">
-        <f t="shared" si="5"/>
-        <v>19250000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>5</v>
       </c>
@@ -6855,13 +5781,13 @@
         <v>113</v>
       </c>
       <c r="E90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F90" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" t="s">
         <v>80</v>
-      </c>
-      <c r="F90" t="s">
-        <v>73</v>
-      </c>
-      <c r="G90" t="s">
-        <v>78</v>
       </c>
       <c r="H90">
         <v>112.57599999999999</v>
@@ -6888,31 +5814,19 @@
         <v>26700000</v>
       </c>
       <c r="P90">
-        <f t="shared" si="3"/>
-        <v>28800000</v>
+        <v>33600000</v>
       </c>
       <c r="Q90">
         <v>33600000</v>
       </c>
       <c r="R90">
-        <v>33600000</v>
+        <v>34500000</v>
       </c>
       <c r="S90">
-        <f t="shared" si="4"/>
-        <v>33600000</v>
-      </c>
-      <c r="T90">
-        <v>34500000</v>
-      </c>
-      <c r="U90">
         <v>33700000</v>
       </c>
-      <c r="V90">
-        <f t="shared" si="5"/>
-        <v>34100000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>5</v>
       </c>
@@ -6926,13 +5840,13 @@
         <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F91" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G91" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H91">
         <v>95.567999999999998</v>
@@ -6959,31 +5873,19 @@
         <v>8020000</v>
       </c>
       <c r="P91">
-        <f t="shared" si="3"/>
-        <v>8415000</v>
+        <v>27200000</v>
       </c>
       <c r="Q91">
-        <v>27200000</v>
+        <v>26000000</v>
       </c>
       <c r="R91">
-        <v>26000000</v>
+        <v>29600000</v>
       </c>
       <c r="S91">
-        <f t="shared" si="4"/>
-        <v>26600000</v>
-      </c>
-      <c r="T91">
-        <v>29600000</v>
-      </c>
-      <c r="U91">
         <v>27000000</v>
       </c>
-      <c r="V91">
-        <f t="shared" si="5"/>
-        <v>28300000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>5</v>
       </c>
@@ -6997,13 +5899,13 @@
         <v>113</v>
       </c>
       <c r="E92" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F92" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G92" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H92">
         <v>88.388000000000005</v>
@@ -7030,31 +5932,19 @@
         <v>2370000</v>
       </c>
       <c r="P92">
-        <f t="shared" si="3"/>
-        <v>2760000</v>
+        <v>11600000</v>
       </c>
       <c r="Q92">
         <v>11600000</v>
       </c>
       <c r="R92">
-        <v>11600000</v>
+        <v>21100000</v>
       </c>
       <c r="S92">
-        <f t="shared" si="4"/>
-        <v>11600000</v>
-      </c>
-      <c r="T92">
-        <v>21100000</v>
-      </c>
-      <c r="U92">
         <v>22400000</v>
       </c>
-      <c r="V92">
-        <f t="shared" si="5"/>
-        <v>21750000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>5</v>
       </c>
@@ -7068,13 +5958,13 @@
         <v>112</v>
       </c>
       <c r="E93" t="s">
+        <v>75</v>
+      </c>
+      <c r="F93" t="s">
+        <v>69</v>
+      </c>
+      <c r="G93" t="s">
         <v>80</v>
-      </c>
-      <c r="F93" t="s">
-        <v>72</v>
-      </c>
-      <c r="G93" t="s">
-        <v>78</v>
       </c>
       <c r="H93">
         <v>65.625</v>
@@ -7101,31 +5991,19 @@
         <v>14200000</v>
       </c>
       <c r="P93">
-        <f t="shared" si="3"/>
-        <v>14300000</v>
+        <v>11500000</v>
       </c>
       <c r="Q93">
         <v>11500000</v>
       </c>
       <c r="R93">
-        <v>11500000</v>
+        <v>22800000</v>
       </c>
       <c r="S93">
-        <f t="shared" si="4"/>
-        <v>11500000</v>
-      </c>
-      <c r="T93">
-        <v>22800000</v>
-      </c>
-      <c r="U93">
         <v>21900000</v>
       </c>
-      <c r="V93">
-        <f t="shared" si="5"/>
-        <v>22350000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>5</v>
       </c>
@@ -7136,7 +6014,7 @@
         <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H94">
         <v>82.317999999999998</v>
@@ -7163,31 +6041,19 @@
         <v>15200000</v>
       </c>
       <c r="P94">
-        <f t="shared" si="3"/>
-        <v>16600000</v>
+        <v>9080000</v>
       </c>
       <c r="Q94">
         <v>9080000</v>
       </c>
       <c r="R94">
-        <v>9080000</v>
+        <v>22800000</v>
       </c>
       <c r="S94">
-        <f t="shared" si="4"/>
-        <v>9080000</v>
-      </c>
-      <c r="T94">
-        <v>22800000</v>
-      </c>
-      <c r="U94">
         <v>22300000</v>
       </c>
-      <c r="V94">
-        <f t="shared" si="5"/>
-        <v>22550000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>5</v>
       </c>
@@ -7201,13 +6067,13 @@
         <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H95">
         <v>103.651</v>
@@ -7234,31 +6100,19 @@
         <v>9680000</v>
       </c>
       <c r="P95">
-        <f t="shared" si="3"/>
-        <v>10040000</v>
+        <v>7410000</v>
       </c>
       <c r="Q95">
         <v>7410000</v>
       </c>
       <c r="R95">
-        <v>7410000</v>
+        <v>21800000</v>
       </c>
       <c r="S95">
-        <f t="shared" si="4"/>
-        <v>7410000</v>
-      </c>
-      <c r="T95">
-        <v>21800000</v>
-      </c>
-      <c r="U95">
         <v>21100000</v>
       </c>
-      <c r="V95">
-        <f t="shared" si="5"/>
-        <v>21450000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>5</v>
       </c>
@@ -7272,13 +6126,13 @@
         <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G96" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H96">
         <v>74.712999999999994</v>
@@ -7305,31 +6159,19 @@
         <v>22000000</v>
       </c>
       <c r="P96">
-        <f t="shared" si="3"/>
-        <v>23700000</v>
+        <v>7860000</v>
       </c>
       <c r="Q96">
         <v>7860000</v>
       </c>
       <c r="R96">
-        <v>7860000</v>
+        <v>16600000</v>
       </c>
       <c r="S96">
-        <f t="shared" si="4"/>
-        <v>7860000</v>
-      </c>
-      <c r="T96">
-        <v>16600000</v>
-      </c>
-      <c r="U96">
         <v>16200000</v>
       </c>
-      <c r="V96">
-        <f t="shared" si="5"/>
-        <v>16400000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>5</v>
       </c>
@@ -7343,13 +6185,13 @@
         <v>112</v>
       </c>
       <c r="E97" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" t="s">
         <v>79</v>
-      </c>
-      <c r="F97" t="s">
-        <v>74</v>
-      </c>
-      <c r="G97" t="s">
-        <v>77</v>
       </c>
       <c r="H97">
         <v>73.501000000000005</v>
@@ -7376,31 +6218,19 @@
         <v>4090000</v>
       </c>
       <c r="P97">
-        <f t="shared" si="3"/>
-        <v>4345000</v>
+        <v>4590000</v>
       </c>
       <c r="Q97">
         <v>4590000</v>
       </c>
       <c r="R97">
-        <v>4590000</v>
+        <v>14100000</v>
       </c>
       <c r="S97">
-        <f t="shared" si="4"/>
-        <v>4590000</v>
-      </c>
-      <c r="T97">
-        <v>14100000</v>
-      </c>
-      <c r="U97">
         <v>13800000</v>
       </c>
-      <c r="V97">
-        <f t="shared" si="5"/>
-        <v>13950000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>5</v>
       </c>
@@ -7414,13 +6244,13 @@
         <v>109</v>
       </c>
       <c r="E98" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F98" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H98">
         <v>67.942999999999998</v>
@@ -7447,31 +6277,19 @@
         <v>13000000</v>
       </c>
       <c r="P98">
-        <f t="shared" si="3"/>
-        <v>13650000</v>
+        <v>8490000</v>
       </c>
       <c r="Q98">
         <v>8490000</v>
       </c>
       <c r="R98">
-        <v>8490000</v>
+        <v>21300000</v>
       </c>
       <c r="S98">
-        <f t="shared" si="4"/>
-        <v>8490000</v>
-      </c>
-      <c r="T98">
-        <v>21300000</v>
-      </c>
-      <c r="U98">
         <v>18900000</v>
       </c>
-      <c r="V98">
-        <f t="shared" si="5"/>
-        <v>20100000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5</v>
       </c>
@@ -7485,13 +6303,13 @@
         <v>109</v>
       </c>
       <c r="E99" t="s">
+        <v>74</v>
+      </c>
+      <c r="F99" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" t="s">
         <v>79</v>
-      </c>
-      <c r="F99" t="s">
-        <v>71</v>
-      </c>
-      <c r="G99" t="s">
-        <v>77</v>
       </c>
       <c r="H99">
         <v>83.948999999999998</v>
@@ -7518,31 +6336,19 @@
         <v>25200000</v>
       </c>
       <c r="P99">
-        <f t="shared" si="3"/>
-        <v>26550000</v>
+        <v>13600000</v>
       </c>
       <c r="Q99">
         <v>13600000</v>
       </c>
       <c r="R99">
-        <v>13600000</v>
+        <v>28200000</v>
       </c>
       <c r="S99">
-        <f t="shared" si="4"/>
-        <v>13600000</v>
-      </c>
-      <c r="T99">
-        <v>28200000</v>
-      </c>
-      <c r="U99">
         <v>27800000</v>
       </c>
-      <c r="V99">
-        <f t="shared" si="5"/>
-        <v>28000000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>5</v>
       </c>
@@ -7556,13 +6362,13 @@
         <v>109</v>
       </c>
       <c r="E100" t="s">
+        <v>75</v>
+      </c>
+      <c r="F100" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" t="s">
         <v>80</v>
-      </c>
-      <c r="F100" t="s">
-        <v>73</v>
-      </c>
-      <c r="G100" t="s">
-        <v>78</v>
       </c>
       <c r="H100">
         <v>91.025999999999996</v>
@@ -7589,31 +6395,19 @@
         <v>25800000</v>
       </c>
       <c r="P100">
-        <f t="shared" si="3"/>
-        <v>27200000</v>
+        <v>14200000</v>
       </c>
       <c r="Q100">
         <v>14200000</v>
       </c>
       <c r="R100">
-        <v>14200000</v>
+        <v>29000000</v>
       </c>
       <c r="S100">
-        <f t="shared" si="4"/>
-        <v>14200000</v>
-      </c>
-      <c r="T100">
-        <v>29000000</v>
-      </c>
-      <c r="U100">
         <v>27900000</v>
       </c>
-      <c r="V100">
-        <f t="shared" si="5"/>
-        <v>28450000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>5</v>
       </c>
@@ -7627,13 +6421,13 @@
         <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F101" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G101" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H101">
         <v>61.597999999999999</v>
@@ -7660,31 +6454,19 @@
         <v>9020000</v>
       </c>
       <c r="P101">
-        <f t="shared" si="3"/>
-        <v>9180000</v>
+        <v>6480000</v>
       </c>
       <c r="Q101">
         <v>6480000</v>
       </c>
       <c r="R101">
-        <v>6480000</v>
+        <v>17200000</v>
       </c>
       <c r="S101">
-        <f t="shared" si="4"/>
-        <v>6480000</v>
-      </c>
-      <c r="T101">
-        <v>17200000</v>
-      </c>
-      <c r="U101">
         <v>18300000</v>
       </c>
-      <c r="V101">
-        <f t="shared" si="5"/>
-        <v>17750000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>5</v>
       </c>
@@ -7695,7 +6477,7 @@
         <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H102">
         <v>74.644000000000005</v>
@@ -7722,31 +6504,19 @@
         <v>10900000</v>
       </c>
       <c r="P102">
-        <f t="shared" si="3"/>
-        <v>11600000</v>
+        <v>9270000</v>
       </c>
       <c r="Q102">
         <v>9270000</v>
       </c>
       <c r="R102">
-        <v>9270000</v>
+        <v>18300000</v>
       </c>
       <c r="S102">
-        <f t="shared" si="4"/>
-        <v>9270000</v>
-      </c>
-      <c r="T102">
-        <v>18300000</v>
-      </c>
-      <c r="U102">
         <v>19700000</v>
       </c>
-      <c r="V102">
-        <f t="shared" si="5"/>
-        <v>19000000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>5</v>
       </c>
@@ -7760,13 +6530,13 @@
         <v>108</v>
       </c>
       <c r="E103" t="s">
+        <v>74</v>
+      </c>
+      <c r="F103" t="s">
+        <v>68</v>
+      </c>
+      <c r="G103" t="s">
         <v>79</v>
-      </c>
-      <c r="F103" t="s">
-        <v>71</v>
-      </c>
-      <c r="G103" t="s">
-        <v>77</v>
       </c>
       <c r="H103">
         <v>79.510999999999996</v>
@@ -7793,31 +6563,19 @@
         <v>6870000</v>
       </c>
       <c r="P103">
-        <f t="shared" si="3"/>
-        <v>7100000</v>
+        <v>4280000</v>
       </c>
       <c r="Q103">
-        <v>4280000</v>
+        <v>4460000</v>
       </c>
       <c r="R103">
-        <v>4460000</v>
+        <v>15900000</v>
       </c>
       <c r="S103">
-        <f t="shared" si="4"/>
-        <v>4370000</v>
-      </c>
-      <c r="T103">
-        <v>15900000</v>
-      </c>
-      <c r="U103">
         <v>15100000</v>
       </c>
-      <c r="V103">
-        <f t="shared" si="5"/>
-        <v>15500000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>5</v>
       </c>
@@ -7831,13 +6589,13 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
+        <v>75</v>
+      </c>
+      <c r="F104" t="s">
+        <v>70</v>
+      </c>
+      <c r="G104" t="s">
         <v>80</v>
-      </c>
-      <c r="F104" t="s">
-        <v>73</v>
-      </c>
-      <c r="G104" t="s">
-        <v>78</v>
       </c>
       <c r="H104">
         <v>106.93600000000001</v>
@@ -7864,31 +6622,19 @@
         <v>41200000</v>
       </c>
       <c r="P104">
-        <f t="shared" si="3"/>
-        <v>43750000</v>
+        <v>18300000</v>
       </c>
       <c r="Q104">
-        <v>18300000</v>
+        <v>17100000</v>
       </c>
       <c r="R104">
-        <v>17100000</v>
+        <v>33800000</v>
       </c>
       <c r="S104">
-        <f t="shared" si="4"/>
-        <v>17700000</v>
-      </c>
-      <c r="T104">
-        <v>33800000</v>
-      </c>
-      <c r="U104">
         <v>32700000</v>
       </c>
-      <c r="V104">
-        <f t="shared" si="5"/>
-        <v>33250000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>5</v>
       </c>
@@ -7902,13 +6648,13 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F105" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G105" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H105">
         <v>93.912000000000006</v>
@@ -7935,31 +6681,19 @@
         <v>6720000</v>
       </c>
       <c r="P105">
-        <f t="shared" si="3"/>
-        <v>7090000</v>
+        <v>4030000</v>
       </c>
       <c r="Q105">
         <v>4030000</v>
       </c>
       <c r="R105">
-        <v>4030000</v>
+        <v>12700000</v>
       </c>
       <c r="S105">
-        <f t="shared" si="4"/>
-        <v>4030000</v>
-      </c>
-      <c r="T105">
-        <v>12700000</v>
-      </c>
-      <c r="U105">
         <v>11900000</v>
       </c>
-      <c r="V105">
-        <f t="shared" si="5"/>
-        <v>12300000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>5</v>
       </c>
@@ -7973,13 +6707,13 @@
         <v>108</v>
       </c>
       <c r="E106" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F106" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G106" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H106">
         <v>94.802000000000007</v>
@@ -8006,31 +6740,19 @@
         <v>16100000</v>
       </c>
       <c r="P106">
-        <f t="shared" si="3"/>
-        <v>16200000</v>
+        <v>5760000</v>
       </c>
       <c r="Q106">
         <v>5760000</v>
       </c>
       <c r="R106">
-        <v>5760000</v>
+        <v>18700000</v>
       </c>
       <c r="S106">
-        <f t="shared" si="4"/>
-        <v>5760000</v>
-      </c>
-      <c r="T106">
-        <v>18700000</v>
-      </c>
-      <c r="U106">
         <v>18200000</v>
       </c>
-      <c r="V106">
-        <f t="shared" si="5"/>
-        <v>18450000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>5</v>
       </c>
@@ -8041,7 +6763,7 @@
         <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H107">
         <v>102.58</v>
@@ -8068,31 +6790,19 @@
         <v>11400000</v>
       </c>
       <c r="P107">
-        <f t="shared" si="3"/>
-        <v>11600000</v>
+        <v>8890000</v>
       </c>
       <c r="Q107">
         <v>8890000</v>
       </c>
       <c r="R107">
-        <v>8890000</v>
+        <v>19300000</v>
       </c>
       <c r="S107">
-        <f t="shared" si="4"/>
-        <v>8890000</v>
-      </c>
-      <c r="T107">
-        <v>19300000</v>
-      </c>
-      <c r="U107">
         <v>18700000</v>
       </c>
-      <c r="V107">
-        <f t="shared" si="5"/>
-        <v>19000000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>5</v>
       </c>
@@ -8106,13 +6816,13 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F108" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G108" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H108">
         <v>99.106999999999999</v>
@@ -8139,31 +6849,19 @@
         <v>14700000</v>
       </c>
       <c r="P108">
-        <f t="shared" si="3"/>
-        <v>16200000</v>
+        <v>12800000</v>
       </c>
       <c r="Q108">
         <v>12800000</v>
       </c>
       <c r="R108">
-        <v>12800000</v>
+        <v>20700000</v>
       </c>
       <c r="S108">
-        <f t="shared" si="4"/>
-        <v>12800000</v>
-      </c>
-      <c r="T108">
-        <v>20700000</v>
-      </c>
-      <c r="U108">
         <v>20300000</v>
       </c>
-      <c r="V108">
-        <f t="shared" si="5"/>
-        <v>20500000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>5</v>
       </c>
@@ -8177,13 +6875,13 @@
         <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F109" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G109" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H109">
         <v>131.04599999999999</v>
@@ -8210,31 +6908,19 @@
         <v>3610000</v>
       </c>
       <c r="P109">
-        <f t="shared" si="3"/>
-        <v>4155000</v>
+        <v>12900000</v>
       </c>
       <c r="Q109">
         <v>12900000</v>
       </c>
       <c r="R109">
-        <v>12900000</v>
+        <v>23300000</v>
       </c>
       <c r="S109">
-        <f t="shared" si="4"/>
-        <v>12900000</v>
-      </c>
-      <c r="T109">
-        <v>23300000</v>
-      </c>
-      <c r="U109">
         <v>22800000</v>
       </c>
-      <c r="V109">
-        <f t="shared" si="5"/>
-        <v>23050000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>5</v>
       </c>
@@ -8248,13 +6934,13 @@
         <v>107</v>
       </c>
       <c r="E110" t="s">
+        <v>74</v>
+      </c>
+      <c r="F110" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" t="s">
         <v>79</v>
-      </c>
-      <c r="F110" t="s">
-        <v>74</v>
-      </c>
-      <c r="G110" t="s">
-        <v>77</v>
       </c>
       <c r="H110">
         <v>111.27800000000001</v>
@@ -8281,31 +6967,19 @@
         <v>11000000</v>
       </c>
       <c r="P110">
-        <f t="shared" si="3"/>
-        <v>11400000</v>
+        <v>6130000</v>
       </c>
       <c r="Q110">
         <v>6130000</v>
       </c>
       <c r="R110">
-        <v>6130000</v>
+        <v>16400000</v>
       </c>
       <c r="S110">
-        <f t="shared" si="4"/>
-        <v>6130000</v>
-      </c>
-      <c r="T110">
-        <v>16400000</v>
-      </c>
-      <c r="U110">
         <v>15200000</v>
       </c>
-      <c r="V110">
-        <f t="shared" si="5"/>
-        <v>15800000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>5</v>
       </c>
@@ -8319,13 +6993,13 @@
         <v>107</v>
       </c>
       <c r="E111" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" t="s">
+        <v>69</v>
+      </c>
+      <c r="G111" t="s">
         <v>80</v>
-      </c>
-      <c r="F111" t="s">
-        <v>72</v>
-      </c>
-      <c r="G111" t="s">
-        <v>78</v>
       </c>
       <c r="H111">
         <v>116.617</v>
@@ -8352,31 +7026,19 @@
         <v>8580000</v>
       </c>
       <c r="P111">
-        <f t="shared" si="3"/>
-        <v>8945000</v>
+        <v>8880000</v>
       </c>
       <c r="Q111">
         <v>8880000</v>
       </c>
       <c r="R111">
-        <v>8880000</v>
+        <v>23100000</v>
       </c>
       <c r="S111">
-        <f t="shared" si="4"/>
-        <v>8880000</v>
-      </c>
-      <c r="T111">
-        <v>23100000</v>
-      </c>
-      <c r="U111">
         <v>21600000</v>
       </c>
-      <c r="V111">
-        <f t="shared" si="5"/>
-        <v>22350000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>6</v>
       </c>
@@ -8390,13 +7052,13 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F112" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G112" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H112">
         <v>96.481999999999999</v>
@@ -8423,31 +7085,19 @@
         <v>5280000</v>
       </c>
       <c r="P112">
-        <f t="shared" si="3"/>
-        <v>5740000</v>
+        <v>15300000</v>
       </c>
       <c r="Q112">
         <v>15300000</v>
       </c>
       <c r="R112">
-        <v>15300000</v>
+        <v>21400000</v>
       </c>
       <c r="S112">
-        <f t="shared" si="4"/>
-        <v>15300000</v>
-      </c>
-      <c r="T112">
-        <v>21400000</v>
-      </c>
-      <c r="U112">
         <v>24900000</v>
       </c>
-      <c r="V112">
-        <f t="shared" si="5"/>
-        <v>23150000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>6</v>
       </c>
@@ -8461,13 +7111,13 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" t="s">
+        <v>68</v>
+      </c>
+      <c r="G113" t="s">
         <v>79</v>
-      </c>
-      <c r="F113" t="s">
-        <v>71</v>
-      </c>
-      <c r="G113" t="s">
-        <v>77</v>
       </c>
       <c r="H113">
         <v>99.013999999999996</v>
@@ -8494,31 +7144,19 @@
         <v>2960000</v>
       </c>
       <c r="P113">
-        <f t="shared" si="3"/>
-        <v>3110000</v>
+        <v>8180000</v>
       </c>
       <c r="Q113">
         <v>8180000</v>
       </c>
       <c r="R113">
-        <v>8180000</v>
+        <v>14400000</v>
       </c>
       <c r="S113">
-        <f t="shared" si="4"/>
-        <v>8180000</v>
-      </c>
-      <c r="T113">
-        <v>14400000</v>
-      </c>
-      <c r="U113">
         <v>16600000</v>
       </c>
-      <c r="V113">
-        <f t="shared" si="5"/>
-        <v>15500000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>6</v>
       </c>
@@ -8532,13 +7170,13 @@
         <v>116</v>
       </c>
       <c r="E114" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F114" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G114" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H114">
         <v>100.93300000000001</v>
@@ -8565,31 +7203,19 @@
         <v>2440000</v>
       </c>
       <c r="P114">
-        <f t="shared" si="3"/>
-        <v>2595000</v>
+        <v>4280000</v>
       </c>
       <c r="Q114">
-        <v>4280000</v>
+        <v>4020000</v>
       </c>
       <c r="R114">
-        <v>4020000</v>
+        <v>10600000</v>
       </c>
       <c r="S114">
-        <f t="shared" si="4"/>
-        <v>4150000</v>
-      </c>
-      <c r="T114">
-        <v>10600000</v>
-      </c>
-      <c r="U114">
         <v>11400000</v>
       </c>
-      <c r="V114">
-        <f t="shared" si="5"/>
-        <v>11000000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>6</v>
       </c>
@@ -8600,7 +7226,7 @@
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H115">
         <v>113.443</v>
@@ -8627,31 +7253,19 @@
         <v>8980000</v>
       </c>
       <c r="P115">
-        <f t="shared" si="3"/>
-        <v>9490000</v>
+        <v>8110000</v>
       </c>
       <c r="Q115">
         <v>8110000</v>
       </c>
       <c r="R115">
-        <v>8110000</v>
+        <v>16100000</v>
       </c>
       <c r="S115">
-        <f t="shared" si="4"/>
-        <v>8110000</v>
-      </c>
-      <c r="T115">
-        <v>16100000</v>
-      </c>
-      <c r="U115">
         <v>15800000</v>
       </c>
-      <c r="V115">
-        <f t="shared" si="5"/>
-        <v>15950000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>6</v>
       </c>
@@ -8665,13 +7279,13 @@
         <v>116</v>
       </c>
       <c r="E116" t="s">
+        <v>75</v>
+      </c>
+      <c r="F116" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" t="s">
         <v>80</v>
-      </c>
-      <c r="F116" t="s">
-        <v>73</v>
-      </c>
-      <c r="G116" t="s">
-        <v>78</v>
       </c>
       <c r="H116">
         <v>116.116</v>
@@ -8698,31 +7312,19 @@
         <v>7850000</v>
       </c>
       <c r="P116">
-        <f t="shared" si="3"/>
-        <v>7940000</v>
+        <v>8260000</v>
       </c>
       <c r="Q116">
         <v>8260000</v>
       </c>
       <c r="R116">
-        <v>8260000</v>
+        <v>19500000</v>
       </c>
       <c r="S116">
-        <f t="shared" si="4"/>
-        <v>8260000</v>
-      </c>
-      <c r="T116">
-        <v>19500000</v>
-      </c>
-      <c r="U116">
         <v>19300000</v>
       </c>
-      <c r="V116">
-        <f t="shared" si="5"/>
-        <v>19400000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>6</v>
       </c>
@@ -8736,13 +7338,13 @@
         <v>115</v>
       </c>
       <c r="E117" t="s">
+        <v>75</v>
+      </c>
+      <c r="F117" t="s">
+        <v>69</v>
+      </c>
+      <c r="G117" t="s">
         <v>80</v>
-      </c>
-      <c r="F117" t="s">
-        <v>72</v>
-      </c>
-      <c r="G117" t="s">
-        <v>78</v>
       </c>
       <c r="H117">
         <v>114.724</v>
@@ -8769,31 +7371,19 @@
         <v>7840000</v>
       </c>
       <c r="P117">
-        <f t="shared" si="3"/>
-        <v>7935000</v>
+        <v>8410000</v>
       </c>
       <c r="Q117">
-        <v>8410000</v>
+        <v>9100000</v>
       </c>
       <c r="R117">
-        <v>9100000</v>
+        <v>18000000</v>
       </c>
       <c r="S117">
-        <f t="shared" si="4"/>
-        <v>8755000</v>
-      </c>
-      <c r="T117">
-        <v>18000000</v>
-      </c>
-      <c r="U117">
         <v>17600000</v>
       </c>
-      <c r="V117">
-        <f t="shared" si="5"/>
-        <v>17800000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>6</v>
       </c>
@@ -8807,13 +7397,13 @@
         <v>115</v>
       </c>
       <c r="E118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" t="s">
+        <v>71</v>
+      </c>
+      <c r="G118" t="s">
         <v>79</v>
-      </c>
-      <c r="F118" t="s">
-        <v>74</v>
-      </c>
-      <c r="G118" t="s">
-        <v>77</v>
       </c>
       <c r="H118">
         <v>141.928</v>
@@ -8840,31 +7430,19 @@
         <v>3820000</v>
       </c>
       <c r="P118">
-        <f t="shared" si="3"/>
-        <v>4040000</v>
+        <v>5310000</v>
       </c>
       <c r="Q118">
-        <v>5310000</v>
+        <v>4960000</v>
       </c>
       <c r="R118">
-        <v>4960000</v>
+        <v>16000000</v>
       </c>
       <c r="S118">
-        <f t="shared" si="4"/>
-        <v>5135000</v>
-      </c>
-      <c r="T118">
-        <v>16000000</v>
-      </c>
-      <c r="U118">
         <v>17000000</v>
       </c>
-      <c r="V118">
-        <f t="shared" si="5"/>
-        <v>16500000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>6</v>
       </c>
@@ -8878,13 +7456,13 @@
         <v>115</v>
       </c>
       <c r="E119" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F119" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G119" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H119">
         <v>133.81399999999999</v>
@@ -8911,31 +7489,19 @@
         <v>7830000</v>
       </c>
       <c r="P119">
-        <f t="shared" si="3"/>
-        <v>7775000</v>
+        <v>7060000</v>
       </c>
       <c r="Q119">
         <v>7060000</v>
       </c>
       <c r="R119">
-        <v>7060000</v>
+        <v>29400000</v>
       </c>
       <c r="S119">
-        <f t="shared" si="4"/>
-        <v>7060000</v>
-      </c>
-      <c r="T119">
-        <v>29400000</v>
-      </c>
-      <c r="U119">
         <v>31100000</v>
       </c>
-      <c r="V119">
-        <f t="shared" si="5"/>
-        <v>30250000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>6</v>
       </c>
@@ -8949,13 +7515,13 @@
         <v>115</v>
       </c>
       <c r="E120" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F120" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G120" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H120">
         <v>108.187</v>
@@ -8982,31 +7548,19 @@
         <v>34700000</v>
       </c>
       <c r="P120">
-        <f t="shared" si="3"/>
-        <v>36700000</v>
+        <v>21000000</v>
       </c>
       <c r="Q120">
         <v>21000000</v>
       </c>
       <c r="R120">
-        <v>21000000</v>
+        <v>42100000</v>
       </c>
       <c r="S120">
-        <f t="shared" si="4"/>
-        <v>21000000</v>
-      </c>
-      <c r="T120">
-        <v>42100000</v>
-      </c>
-      <c r="U120">
         <v>40700000</v>
       </c>
-      <c r="V120">
-        <f t="shared" si="5"/>
-        <v>41400000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>6</v>
       </c>
@@ -9017,7 +7571,7 @@
         <v>15</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H121">
         <v>102.512</v>
@@ -9044,31 +7598,19 @@
         <v>12900000</v>
       </c>
       <c r="P121">
-        <f t="shared" si="3"/>
-        <v>13800000</v>
+        <v>9010000</v>
       </c>
       <c r="Q121">
         <v>9010000</v>
       </c>
       <c r="R121">
-        <v>9010000</v>
+        <v>24100000</v>
       </c>
       <c r="S121">
-        <f t="shared" si="4"/>
-        <v>9010000</v>
-      </c>
-      <c r="T121">
-        <v>24100000</v>
-      </c>
-      <c r="U121">
         <v>26000000</v>
       </c>
-      <c r="V121">
-        <f t="shared" si="5"/>
-        <v>25050000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>6</v>
       </c>
@@ -9082,13 +7624,13 @@
         <v>114</v>
       </c>
       <c r="E122" t="s">
+        <v>75</v>
+      </c>
+      <c r="F122" t="s">
+        <v>69</v>
+      </c>
+      <c r="G122" t="s">
         <v>80</v>
-      </c>
-      <c r="F122" t="s">
-        <v>72</v>
-      </c>
-      <c r="G122" t="s">
-        <v>78</v>
       </c>
       <c r="H122">
         <v>120.012</v>
@@ -9115,31 +7657,19 @@
         <v>18100000</v>
       </c>
       <c r="P122">
-        <f t="shared" si="3"/>
-        <v>18600000</v>
+        <v>18800000</v>
       </c>
       <c r="Q122">
         <v>18800000</v>
       </c>
       <c r="R122">
-        <v>18800000</v>
+        <v>32400000</v>
       </c>
       <c r="S122">
-        <f t="shared" si="4"/>
-        <v>18800000</v>
-      </c>
-      <c r="T122">
-        <v>32400000</v>
-      </c>
-      <c r="U122">
         <v>31900000</v>
       </c>
-      <c r="V122">
-        <f t="shared" si="5"/>
-        <v>32150000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>6</v>
       </c>
@@ -9153,13 +7683,13 @@
         <v>114</v>
       </c>
       <c r="E123" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" t="s">
+        <v>71</v>
+      </c>
+      <c r="G123" t="s">
         <v>79</v>
-      </c>
-      <c r="F123" t="s">
-        <v>74</v>
-      </c>
-      <c r="G123" t="s">
-        <v>77</v>
       </c>
       <c r="H123">
         <v>125.414</v>
@@ -9186,31 +7716,19 @@
         <v>9560000</v>
       </c>
       <c r="P123">
-        <f t="shared" si="3"/>
-        <v>9930000</v>
+        <v>12700000</v>
       </c>
       <c r="Q123">
         <v>12700000</v>
       </c>
       <c r="R123">
-        <v>12700000</v>
+        <v>25900000</v>
       </c>
       <c r="S123">
-        <f t="shared" si="4"/>
-        <v>12700000</v>
-      </c>
-      <c r="T123">
-        <v>25900000</v>
-      </c>
-      <c r="U123">
         <v>25400000</v>
       </c>
-      <c r="V123">
-        <f t="shared" si="5"/>
-        <v>25650000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>6</v>
       </c>
@@ -9224,13 +7742,13 @@
         <v>114</v>
       </c>
       <c r="E124" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F124" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G124" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H124">
         <v>119.09099999999999</v>
@@ -9257,31 +7775,19 @@
         <v>5480000</v>
       </c>
       <c r="P124">
-        <f t="shared" si="3"/>
-        <v>5755000</v>
+        <v>12700000</v>
       </c>
       <c r="Q124">
         <v>12700000</v>
       </c>
       <c r="R124">
-        <v>12700000</v>
+        <v>26400000</v>
       </c>
       <c r="S124">
-        <f t="shared" si="4"/>
-        <v>12700000</v>
-      </c>
-      <c r="T124">
-        <v>26400000</v>
-      </c>
-      <c r="U124">
         <v>25600000</v>
       </c>
-      <c r="V124">
-        <f t="shared" si="5"/>
-        <v>26000000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>6</v>
       </c>
@@ -9295,13 +7801,13 @@
         <v>114</v>
       </c>
       <c r="E125" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F125" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G125" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H125">
         <v>131.04</v>
@@ -9328,31 +7834,19 @@
         <v>3670000</v>
       </c>
       <c r="P125">
-        <f t="shared" si="3"/>
-        <v>3880000</v>
+        <v>7060000</v>
       </c>
       <c r="Q125">
         <v>7060000</v>
       </c>
       <c r="R125">
-        <v>7060000</v>
+        <v>18900000</v>
       </c>
       <c r="S125">
-        <f t="shared" si="4"/>
-        <v>7060000</v>
-      </c>
-      <c r="T125">
-        <v>18900000</v>
-      </c>
-      <c r="U125">
         <v>18600000</v>
       </c>
-      <c r="V125">
-        <f t="shared" si="5"/>
-        <v>18750000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>6</v>
       </c>
@@ -9363,7 +7857,7 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H126">
         <v>128.71799999999999</v>
@@ -9390,28 +7884,16 @@
         <v>11700000</v>
       </c>
       <c r="P126">
-        <f t="shared" si="3"/>
-        <v>12450000</v>
+        <v>8190000</v>
       </c>
       <c r="Q126">
-        <v>8190000</v>
+        <v>8750000</v>
       </c>
       <c r="R126">
-        <v>8750000</v>
+        <v>19100000</v>
       </c>
       <c r="S126">
-        <f t="shared" si="4"/>
-        <v>8470000</v>
-      </c>
-      <c r="T126">
-        <v>19100000</v>
-      </c>
-      <c r="U126">
         <v>20400000</v>
-      </c>
-      <c r="V126">
-        <f t="shared" si="5"/>
-        <v>19750000</v>
       </c>
     </row>
   </sheetData>

--- a/data/protein/western.quant.xlsx
+++ b/data/protein/western.quant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristili\R\ribose-paper\data\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F8B4DA-588F-4FA1-ACE3-A5D8A21DA10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1D813-62CC-4914-9A47-C53285B6FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="82">
   <si>
     <t>gel</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>tot.prot</t>
   </si>
 </sst>
 </file>
@@ -639,19 +642,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E27BD1-C824-4623-B0AE-633ACA3A0674}">
-  <dimension ref="A1:S126"/>
+  <dimension ref="A1:U126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
+      <selection activeCell="U121" sqref="U121:U124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -709,8 +712,11 @@
       <c r="S1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -768,8 +774,11 @@
       <c r="S2">
         <v>12900000</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T2">
+        <v>11.5021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -827,8 +836,11 @@
       <c r="S3">
         <v>12300000</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T3">
+        <v>16.277200000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -886,8 +898,11 @@
       <c r="S4">
         <v>35100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T4">
+        <v>13.8453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -945,8 +960,11 @@
       <c r="S5">
         <v>22400000</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T5">
+        <v>7.5820999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -996,7 +1014,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1054,8 +1072,11 @@
       <c r="S7">
         <v>35800000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T7">
+        <v>16.605499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1113,8 +1134,11 @@
       <c r="S8">
         <v>30300000</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T8">
+        <v>17.893000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1172,8 +1196,11 @@
       <c r="S9">
         <v>15300000</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T9">
+        <v>9.8752999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1231,8 +1258,11 @@
       <c r="S10">
         <v>16700000</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T10">
+        <v>11.0624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1290,8 +1320,11 @@
       <c r="S11">
         <v>15300000</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T11">
+        <v>17.706900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1341,7 +1374,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1399,8 +1432,11 @@
       <c r="S13">
         <v>17800000</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T13">
+        <v>7.4519000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1458,8 +1494,11 @@
       <c r="S14">
         <v>31500000</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T14">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1517,8 +1556,11 @@
       <c r="S15">
         <v>39000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T15">
+        <v>14.1081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1576,8 +1618,11 @@
       <c r="S16">
         <v>37600000</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T16">
+        <v>5.9157999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1635,8 +1680,11 @@
       <c r="S17">
         <v>22600000</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T17">
+        <v>7.9409999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1694,8 +1742,11 @@
       <c r="S18">
         <v>34600000</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T18">
+        <v>6.5709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1753,8 +1804,11 @@
       <c r="S19">
         <v>32600000</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T19">
+        <v>4.5896999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1804,7 +1858,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1862,8 +1916,11 @@
       <c r="S21">
         <v>11100000</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T21">
+        <v>6.8564999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1921,8 +1978,11 @@
       <c r="S22">
         <v>18900000</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T22">
+        <v>5.1608999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1980,8 +2040,11 @@
       <c r="S23">
         <v>22800000</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T23">
+        <v>5.7210000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2039,8 +2102,11 @@
       <c r="S24">
         <v>18600000</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T24">
+        <v>8.6717999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2098,8 +2164,11 @@
       <c r="S25">
         <v>16800000</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T25">
+        <v>7.5750000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2157,8 +2226,11 @@
       <c r="S26">
         <v>12900000</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T26">
+        <v>8.5182000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2216,8 +2288,11 @@
       <c r="S27">
         <v>20600000</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T27">
+        <v>4.6745000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2275,8 +2350,11 @@
       <c r="S28">
         <v>18000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T28">
+        <v>6.0864000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2326,7 +2404,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2384,8 +2462,11 @@
       <c r="S30">
         <v>15900000</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T30">
+        <v>6.8334000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2443,8 +2524,11 @@
       <c r="S31">
         <v>14400000</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T31">
+        <v>11.1694</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2502,8 +2586,11 @@
       <c r="S32">
         <v>36000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T32">
+        <v>12.156599999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2561,8 +2648,11 @@
       <c r="S33">
         <v>14900000</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T33">
+        <v>9.5124999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2612,7 +2702,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2670,8 +2760,11 @@
       <c r="S35">
         <v>14200000</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T35">
+        <v>10.065300000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2729,8 +2822,11 @@
       <c r="S36">
         <v>24100000</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T36">
+        <v>9.0355000000000008</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2788,8 +2884,11 @@
       <c r="S37">
         <v>24000000</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T37">
+        <v>6.0128000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2847,8 +2946,11 @@
       <c r="S38">
         <v>16100000</v>
       </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T38">
+        <v>4.6557000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2906,8 +3008,11 @@
       <c r="S39">
         <v>9530000</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T39">
+        <v>6.9226999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2965,8 +3070,11 @@
       <c r="S40">
         <v>11600000</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T40">
+        <v>7.3975999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3024,8 +3132,11 @@
       <c r="S41">
         <v>17600000</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T41">
+        <v>5.3219000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3075,7 +3186,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3133,8 +3244,11 @@
       <c r="S43">
         <v>16200000</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T43">
+        <v>8.0067000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3192,8 +3306,11 @@
       <c r="S44">
         <v>18900000</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T44">
+        <v>5.1547999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3251,8 +3368,11 @@
       <c r="S45">
         <v>25900000</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T45">
+        <v>5.4824000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3310,8 +3430,11 @@
       <c r="S46">
         <v>34600000</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T46">
+        <v>5.7061000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3369,8 +3492,11 @@
       <c r="S47">
         <v>17900000</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T47">
+        <v>5.3526999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3420,7 +3546,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3470,7 +3596,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3528,8 +3654,11 @@
       <c r="S50">
         <v>15800000</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T50">
+        <v>8.5611999999999995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3587,8 +3716,11 @@
       <c r="S51">
         <v>20400000</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T51">
+        <v>7.1992000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3646,8 +3778,11 @@
       <c r="S52">
         <v>21200000</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T52">
+        <v>9.0961999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3705,8 +3840,11 @@
       <c r="S53">
         <v>23100000</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T53">
+        <v>8.7715999999999994</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3756,7 +3894,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3814,8 +3952,11 @@
       <c r="S55">
         <v>32800000</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T55">
+        <v>6.5338000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -3873,8 +4014,11 @@
       <c r="S56">
         <v>24500000</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T56">
+        <v>6.3338000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -3932,8 +4076,11 @@
       <c r="S57">
         <v>16700000</v>
       </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T57">
+        <v>5.2206000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -3991,8 +4138,11 @@
       <c r="S58">
         <v>22300000</v>
       </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T58">
+        <v>5.6836000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4050,8 +4200,11 @@
       <c r="S59">
         <v>29500000</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T59">
+        <v>5.8544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4101,7 +4254,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4159,8 +4312,11 @@
       <c r="S61">
         <v>17900000</v>
       </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T61">
+        <v>5.0522</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4218,8 +4374,11 @@
       <c r="S62">
         <v>22300000</v>
       </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T62">
+        <v>6.0336999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4277,8 +4436,11 @@
       <c r="S63">
         <v>29000000</v>
       </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T63">
+        <v>4.0989000000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -4328,7 +4490,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -4386,8 +4548,12 @@
       <c r="S65">
         <v>16500000</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T65">
+        <v>8.6717999999999993</v>
+      </c>
+      <c r="U65" s="1"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -4445,8 +4611,12 @@
       <c r="S66">
         <v>21500000</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T66">
+        <v>5.7210000000000001</v>
+      </c>
+      <c r="U66" s="1"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -4504,8 +4674,12 @@
       <c r="S67">
         <v>16900000</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T67">
+        <v>5.1608999999999998</v>
+      </c>
+      <c r="U67" s="1"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -4563,8 +4737,12 @@
       <c r="S68">
         <v>8720000</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T68">
+        <v>6.8564999999999996</v>
+      </c>
+      <c r="U68" s="1"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -4614,7 +4792,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -4672,8 +4850,12 @@
       <c r="S70">
         <v>21800000</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T70">
+        <v>4.5896999999999997</v>
+      </c>
+      <c r="U70" s="1"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -4731,8 +4913,12 @@
       <c r="S71">
         <v>23900000</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T71">
+        <v>6.5709</v>
+      </c>
+      <c r="U71" s="1"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -4790,8 +4976,12 @@
       <c r="S72">
         <v>17300000</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T72">
+        <v>7.9409999999999998</v>
+      </c>
+      <c r="U72" s="1"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -4849,8 +5039,12 @@
       <c r="S73">
         <v>28500000</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T73">
+        <v>5.9157999999999999</v>
+      </c>
+      <c r="U73" s="1"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -4908,8 +5102,11 @@
       <c r="S74">
         <v>35000000</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T74">
+        <v>14.1081</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -4967,8 +5164,12 @@
       <c r="S75">
         <v>27200000</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T75">
+        <v>10.42</v>
+      </c>
+      <c r="U75" s="1"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5026,8 +5227,12 @@
       <c r="S76">
         <v>15300000</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T76">
+        <v>7.4519000000000002</v>
+      </c>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5076,8 +5281,9 @@
       <c r="S77">
         <v>20400000</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -5135,8 +5341,12 @@
       <c r="S78">
         <v>11300000</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T78">
+        <v>17.706900000000001</v>
+      </c>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -5194,8 +5404,12 @@
       <c r="S79">
         <v>13800000</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T79">
+        <v>11.0624</v>
+      </c>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -5253,8 +5467,12 @@
       <c r="S80">
         <v>15100000</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T80">
+        <v>9.8752999999999993</v>
+      </c>
+      <c r="U80" s="1"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -5312,8 +5530,12 @@
       <c r="S81">
         <v>28200000</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T81">
+        <v>17.893000000000001</v>
+      </c>
+      <c r="U81" s="1"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -5371,8 +5593,12 @@
       <c r="S82">
         <v>30400000</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T82">
+        <v>16.605499999999999</v>
+      </c>
+      <c r="U82" s="1"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -5422,7 +5648,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -5480,8 +5706,12 @@
       <c r="S84">
         <v>23800000</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T84">
+        <v>7.5820999999999996</v>
+      </c>
+      <c r="U84" s="1"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -5539,8 +5769,12 @@
       <c r="S85">
         <v>33400000</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T85">
+        <v>13.8453</v>
+      </c>
+      <c r="U85" s="1"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -5598,8 +5832,12 @@
       <c r="S86">
         <v>13100000</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T86">
+        <v>16.277200000000001</v>
+      </c>
+      <c r="U86" s="1"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -5657,8 +5895,12 @@
       <c r="S87">
         <v>14900000</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T87">
+        <v>11.5021</v>
+      </c>
+      <c r="U87" s="1"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5</v>
       </c>
@@ -5708,7 +5950,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5</v>
       </c>
@@ -5766,8 +6008,12 @@
       <c r="S89">
         <v>19400000</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T89">
+        <v>5.3526999999999996</v>
+      </c>
+      <c r="U89" s="1"/>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5</v>
       </c>
@@ -5825,8 +6071,12 @@
       <c r="S90">
         <v>33700000</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T90">
+        <v>5.7061000000000002</v>
+      </c>
+      <c r="U90" s="1"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5</v>
       </c>
@@ -5884,8 +6134,12 @@
       <c r="S91">
         <v>27000000</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T91">
+        <v>5.4824000000000002</v>
+      </c>
+      <c r="U91" s="1"/>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -5943,8 +6197,12 @@
       <c r="S92">
         <v>22400000</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T92">
+        <v>5.1547999999999998</v>
+      </c>
+      <c r="U92" s="1"/>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5</v>
       </c>
@@ -6002,8 +6260,12 @@
       <c r="S93">
         <v>21900000</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T93">
+        <v>8.0067000000000004</v>
+      </c>
+      <c r="U93" s="1"/>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5</v>
       </c>
@@ -6052,8 +6314,9 @@
       <c r="S94">
         <v>22300000</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U94" s="1"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5</v>
       </c>
@@ -6111,8 +6374,12 @@
       <c r="S95">
         <v>21100000</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T95">
+        <v>5.3219000000000003</v>
+      </c>
+      <c r="U95" s="1"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -6170,8 +6437,12 @@
       <c r="S96">
         <v>16200000</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T96">
+        <v>7.3975999999999997</v>
+      </c>
+      <c r="U96" s="1"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5</v>
       </c>
@@ -6229,8 +6500,11 @@
       <c r="S97">
         <v>13800000</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T97">
+        <v>6.9226999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5</v>
       </c>
@@ -6288,8 +6562,11 @@
       <c r="S98">
         <v>18900000</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T98">
+        <v>4.6557000000000004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -6347,8 +6624,12 @@
       <c r="S99">
         <v>27800000</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T99">
+        <v>6.0128000000000004</v>
+      </c>
+      <c r="U99" s="1"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -6406,8 +6687,12 @@
       <c r="S100">
         <v>27900000</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T100">
+        <v>9.0355000000000008</v>
+      </c>
+      <c r="U100" s="1"/>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -6465,8 +6750,12 @@
       <c r="S101">
         <v>18300000</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T101">
+        <v>10.065300000000001</v>
+      </c>
+      <c r="U101" s="1"/>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -6515,8 +6804,9 @@
       <c r="S102">
         <v>19700000</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U102" s="1"/>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -6574,8 +6864,12 @@
       <c r="S103">
         <v>15100000</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T103">
+        <v>9.5124999999999993</v>
+      </c>
+      <c r="U103" s="1"/>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -6633,8 +6927,12 @@
       <c r="S104">
         <v>32700000</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T104">
+        <v>12.156599999999999</v>
+      </c>
+      <c r="U104" s="1"/>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -6692,8 +6990,12 @@
       <c r="S105">
         <v>11900000</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T105">
+        <v>11.1694</v>
+      </c>
+      <c r="U105" s="1"/>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -6751,8 +7053,11 @@
       <c r="S106">
         <v>18200000</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T106">
+        <v>6.8334000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -6801,8 +7106,9 @@
       <c r="S107">
         <v>18700000</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U107" s="1"/>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -6860,8 +7166,12 @@
       <c r="S108">
         <v>20300000</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T108">
+        <v>6.0864000000000003</v>
+      </c>
+      <c r="U108" s="1"/>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -6919,8 +7229,12 @@
       <c r="S109">
         <v>22800000</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T109">
+        <v>4.6745000000000001</v>
+      </c>
+      <c r="U109" s="1"/>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -6978,8 +7292,12 @@
       <c r="S110">
         <v>15200000</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T110">
+        <v>8.5182000000000002</v>
+      </c>
+      <c r="U110" s="1"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -7037,8 +7355,11 @@
       <c r="S111">
         <v>21600000</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T111">
+        <v>7.5750000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -7096,8 +7417,12 @@
       <c r="S112">
         <v>24900000</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T112">
+        <v>4.0989000000000004</v>
+      </c>
+      <c r="U112" s="1"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -7155,8 +7480,12 @@
       <c r="S113">
         <v>16600000</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T113">
+        <v>6.0336999999999996</v>
+      </c>
+      <c r="U113" s="1"/>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6</v>
       </c>
@@ -7214,8 +7543,12 @@
       <c r="S114">
         <v>11400000</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T114">
+        <v>5.0522</v>
+      </c>
+      <c r="U114" s="1"/>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
@@ -7264,8 +7597,9 @@
       <c r="S115">
         <v>15800000</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U115" s="1"/>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
@@ -7323,8 +7657,11 @@
       <c r="S116">
         <v>19300000</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T116">
+        <v>5.8544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
@@ -7382,8 +7719,12 @@
       <c r="S117">
         <v>17600000</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T117">
+        <v>5.6836000000000002</v>
+      </c>
+      <c r="U117" s="1"/>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6</v>
       </c>
@@ -7441,8 +7782,12 @@
       <c r="S118">
         <v>17000000</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T118">
+        <v>5.2206000000000001</v>
+      </c>
+      <c r="U118" s="1"/>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -7500,8 +7845,12 @@
       <c r="S119">
         <v>31100000</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T119">
+        <v>6.3338000000000001</v>
+      </c>
+      <c r="U119" s="1"/>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>6</v>
       </c>
@@ -7559,8 +7908,12 @@
       <c r="S120">
         <v>40700000</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T120">
+        <v>6.5338000000000003</v>
+      </c>
+      <c r="U120" s="1"/>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -7609,8 +7962,9 @@
       <c r="S121">
         <v>26000000</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="U121" s="1"/>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>6</v>
       </c>
@@ -7668,8 +8022,12 @@
       <c r="S122">
         <v>31900000</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T122">
+        <v>8.7715999999999994</v>
+      </c>
+      <c r="U122" s="1"/>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>6</v>
       </c>
@@ -7727,8 +8085,12 @@
       <c r="S123">
         <v>25400000</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T123">
+        <v>9.0961999999999996</v>
+      </c>
+      <c r="U123" s="1"/>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -7786,8 +8148,12 @@
       <c r="S124">
         <v>25600000</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T124">
+        <v>7.1992000000000003</v>
+      </c>
+      <c r="U124" s="1"/>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -7845,8 +8211,11 @@
       <c r="S125">
         <v>18600000</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="T125">
+        <v>8.5611999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>6</v>
       </c>

--- a/data/protein/western.quant.xlsx
+++ b/data/protein/western.quant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kristili\R\ribose-paper\data\protein\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1D813-62CC-4914-9A47-C53285B6FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBC5AAD-2730-40E3-BB17-64789A6F49D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAEAA96B-A5E5-4AF0-AE5A-BF52CEB7DD8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="83">
   <si>
     <t>gel</t>
   </si>
@@ -283,6 +283,9 @@
   <si>
     <t>tot.prot</t>
   </si>
+  <si>
+    <t>fdweight.mg</t>
+  </si>
 </sst>
 </file>
 
@@ -323,11 +326,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,19 +648,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E27BD1-C824-4623-B0AE-633ACA3A0674}">
-  <dimension ref="A1:U126"/>
+  <dimension ref="A1:W126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="U121" sqref="U121:U124"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,8 +722,11 @@
       <c r="T1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -777,8 +787,11 @@
       <c r="T2">
         <v>11.5021</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -839,8 +852,11 @@
       <c r="T3">
         <v>16.277200000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -901,8 +917,11 @@
       <c r="T4">
         <v>13.8453</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -963,8 +982,11 @@
       <c r="T5">
         <v>7.5820999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1014,7 +1036,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1075,8 +1097,11 @@
       <c r="T7">
         <v>16.605499999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1137,8 +1162,11 @@
       <c r="T8">
         <v>17.893000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1199,8 +1227,11 @@
       <c r="T9">
         <v>9.8752999999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1261,8 +1292,11 @@
       <c r="T10">
         <v>11.0624</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1323,8 +1357,11 @@
       <c r="T11">
         <v>17.706900000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1374,7 +1411,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1435,8 +1472,11 @@
       <c r="T13">
         <v>7.4519000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1497,27 +1537,30 @@
       <c r="T14">
         <v>10.42</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>103</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H15">
@@ -1559,27 +1602,31 @@
       <c r="T15">
         <v>14.1081</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>3.6</v>
+      </c>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>105</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5" t="s">
         <v>80</v>
       </c>
       <c r="H16">
@@ -1621,8 +1668,12 @@
       <c r="T16">
         <v>5.9157999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0.7</v>
+      </c>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1683,8 +1734,11 @@
       <c r="T17">
         <v>7.9409999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1745,8 +1799,11 @@
       <c r="T18">
         <v>6.5709</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1807,8 +1864,11 @@
       <c r="T19">
         <v>4.5896999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1858,7 +1918,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1919,8 +1979,11 @@
       <c r="T21">
         <v>6.8564999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1981,8 +2044,11 @@
       <c r="T22">
         <v>5.1608999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -2043,8 +2109,11 @@
       <c r="T23">
         <v>5.7210000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -2105,8 +2174,11 @@
       <c r="T24">
         <v>8.6717999999999993</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2167,8 +2239,11 @@
       <c r="T25">
         <v>7.5750000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2229,8 +2304,11 @@
       <c r="T26">
         <v>8.5182000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2291,8 +2369,11 @@
       <c r="T27">
         <v>4.6745000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2353,8 +2434,11 @@
       <c r="T28">
         <v>6.0864000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2404,7 +2488,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2465,8 +2549,11 @@
       <c r="T30">
         <v>6.8334000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2527,8 +2614,11 @@
       <c r="T31">
         <v>11.1694</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2589,8 +2679,11 @@
       <c r="T32">
         <v>12.156599999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2651,8 +2744,11 @@
       <c r="T33">
         <v>9.5124999999999993</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2702,7 +2798,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2763,8 +2859,11 @@
       <c r="T35">
         <v>10.065300000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2825,8 +2924,11 @@
       <c r="T36">
         <v>9.0355000000000008</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2887,8 +2989,11 @@
       <c r="T37">
         <v>6.0128000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2949,8 +3054,11 @@
       <c r="T38">
         <v>4.6557000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3011,8 +3119,11 @@
       <c r="T39">
         <v>6.9226999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3073,8 +3184,11 @@
       <c r="T40">
         <v>7.3975999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -3135,8 +3249,11 @@
       <c r="T41">
         <v>5.3219000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -3186,7 +3303,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3247,8 +3364,11 @@
       <c r="T43">
         <v>8.0067000000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3309,8 +3429,11 @@
       <c r="T44">
         <v>5.1547999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3371,8 +3494,11 @@
       <c r="T45">
         <v>5.4824000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3433,8 +3559,11 @@
       <c r="T46">
         <v>5.7061000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3495,8 +3624,11 @@
       <c r="T47">
         <v>5.3526999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3546,7 +3678,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3596,7 +3728,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3657,8 +3789,11 @@
       <c r="T50">
         <v>8.5611999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -3719,8 +3854,11 @@
       <c r="T51">
         <v>7.1992000000000003</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -3781,8 +3919,11 @@
       <c r="T52">
         <v>9.0961999999999996</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -3843,8 +3984,11 @@
       <c r="T53">
         <v>8.7715999999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -3894,7 +4038,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -3955,8 +4099,11 @@
       <c r="T55">
         <v>6.5338000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -4017,8 +4164,11 @@
       <c r="T56">
         <v>6.3338000000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -4079,8 +4229,11 @@
       <c r="T57">
         <v>5.2206000000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4141,8 +4294,11 @@
       <c r="T58">
         <v>5.6836000000000002</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4203,8 +4359,11 @@
       <c r="T59">
         <v>5.8544</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4254,7 +4413,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -4315,8 +4474,11 @@
       <c r="T61">
         <v>5.0522</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4377,8 +4539,11 @@
       <c r="T62">
         <v>6.0336999999999996</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4439,8 +4604,11 @@
       <c r="T63">
         <v>4.0989000000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -4490,7 +4658,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -4551,9 +4719,11 @@
       <c r="T65">
         <v>8.6717999999999993</v>
       </c>
-      <c r="U65" s="1"/>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U65">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -4614,9 +4784,11 @@
       <c r="T66">
         <v>5.7210000000000001</v>
       </c>
-      <c r="U66" s="1"/>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U66">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -4677,9 +4849,11 @@
       <c r="T67">
         <v>5.1608999999999998</v>
       </c>
-      <c r="U67" s="1"/>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U67">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -4740,9 +4914,11 @@
       <c r="T68">
         <v>6.8564999999999996</v>
       </c>
-      <c r="U68" s="1"/>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U68">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -4792,7 +4968,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -4853,9 +5029,12 @@
       <c r="T70">
         <v>4.5896999999999997</v>
       </c>
-      <c r="U70" s="1"/>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U70" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -4916,9 +5095,11 @@
       <c r="T71">
         <v>6.5709</v>
       </c>
-      <c r="U71" s="1"/>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U71" s="6">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -4979,9 +5160,11 @@
       <c r="T72">
         <v>7.9409999999999998</v>
       </c>
-      <c r="U72" s="1"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U72" s="6">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -5042,9 +5225,11 @@
       <c r="T73">
         <v>5.9157999999999999</v>
       </c>
-      <c r="U73" s="1"/>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U73" s="6">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -5105,8 +5290,11 @@
       <c r="T74">
         <v>14.1081</v>
       </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U74" s="6">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -5167,9 +5355,11 @@
       <c r="T75">
         <v>10.42</v>
       </c>
-      <c r="U75" s="1"/>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U75" s="6">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -5230,9 +5420,11 @@
       <c r="T76">
         <v>7.4519000000000002</v>
       </c>
-      <c r="U76" s="1"/>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -5283,7 +5475,7 @@
       </c>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -5344,9 +5536,12 @@
       <c r="T78">
         <v>17.706900000000001</v>
       </c>
-      <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U78" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -5407,9 +5602,11 @@
       <c r="T79">
         <v>11.0624</v>
       </c>
-      <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U79" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -5470,7 +5667,9 @@
       <c r="T80">
         <v>9.8752999999999993</v>
       </c>
-      <c r="U80" s="1"/>
+      <c r="U80" s="6">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -5533,7 +5732,9 @@
       <c r="T81">
         <v>17.893000000000001</v>
       </c>
-      <c r="U81" s="1"/>
+      <c r="U81" s="6">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -5596,7 +5797,9 @@
       <c r="T82">
         <v>16.605499999999999</v>
       </c>
-      <c r="U82" s="1"/>
+      <c r="U82" s="6">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -5709,7 +5912,9 @@
       <c r="T84">
         <v>7.5820999999999996</v>
       </c>
-      <c r="U84" s="1"/>
+      <c r="U84" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -5772,7 +5977,9 @@
       <c r="T85">
         <v>13.8453</v>
       </c>
-      <c r="U85" s="1"/>
+      <c r="U85" s="6">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -5835,7 +6042,9 @@
       <c r="T86">
         <v>16.277200000000001</v>
       </c>
-      <c r="U86" s="1"/>
+      <c r="U86" s="6">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -5898,7 +6107,9 @@
       <c r="T87">
         <v>11.5021</v>
       </c>
-      <c r="U87" s="1"/>
+      <c r="U87" s="6">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -6011,7 +6222,9 @@
       <c r="T89">
         <v>5.3526999999999996</v>
       </c>
-      <c r="U89" s="1"/>
+      <c r="U89" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -6074,7 +6287,9 @@
       <c r="T90">
         <v>5.7061000000000002</v>
       </c>
-      <c r="U90" s="1"/>
+      <c r="U90" s="6">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -6137,7 +6352,9 @@
       <c r="T91">
         <v>5.4824000000000002</v>
       </c>
-      <c r="U91" s="1"/>
+      <c r="U91" s="6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -6200,7 +6417,9 @@
       <c r="T92">
         <v>5.1547999999999998</v>
       </c>
-      <c r="U92" s="1"/>
+      <c r="U92" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -6263,7 +6482,9 @@
       <c r="T93">
         <v>8.0067000000000004</v>
       </c>
-      <c r="U93" s="1"/>
+      <c r="U93" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -6377,7 +6598,9 @@
       <c r="T95">
         <v>5.3219000000000003</v>
       </c>
-      <c r="U95" s="1"/>
+      <c r="U95" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -6440,7 +6663,9 @@
       <c r="T96">
         <v>7.3975999999999997</v>
       </c>
-      <c r="U96" s="1"/>
+      <c r="U96" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -6503,6 +6728,9 @@
       <c r="T97">
         <v>6.9226999999999999</v>
       </c>
+      <c r="U97" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -6565,6 +6793,9 @@
       <c r="T98">
         <v>4.6557000000000004</v>
       </c>
+      <c r="U98" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -6627,7 +6858,9 @@
       <c r="T99">
         <v>6.0128000000000004</v>
       </c>
-      <c r="U99" s="1"/>
+      <c r="U99" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -6690,7 +6923,9 @@
       <c r="T100">
         <v>9.0355000000000008</v>
       </c>
-      <c r="U100" s="1"/>
+      <c r="U100" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -6753,7 +6988,9 @@
       <c r="T101">
         <v>10.065300000000001</v>
       </c>
-      <c r="U101" s="1"/>
+      <c r="U101" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -6867,7 +7104,9 @@
       <c r="T103">
         <v>9.5124999999999993</v>
       </c>
-      <c r="U103" s="1"/>
+      <c r="U103" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -6930,7 +7169,9 @@
       <c r="T104">
         <v>12.156599999999999</v>
       </c>
-      <c r="U104" s="1"/>
+      <c r="U104" s="6">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -6993,7 +7234,9 @@
       <c r="T105">
         <v>11.1694</v>
       </c>
-      <c r="U105" s="1"/>
+      <c r="U105" s="6">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -7056,6 +7299,9 @@
       <c r="T106">
         <v>6.8334000000000001</v>
       </c>
+      <c r="U106" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -7169,7 +7415,9 @@
       <c r="T108">
         <v>6.0864000000000003</v>
       </c>
-      <c r="U108" s="1"/>
+      <c r="U108" s="6">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -7232,7 +7480,9 @@
       <c r="T109">
         <v>4.6745000000000001</v>
       </c>
-      <c r="U109" s="1"/>
+      <c r="U109" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -7295,7 +7545,9 @@
       <c r="T110">
         <v>8.5182000000000002</v>
       </c>
-      <c r="U110" s="1"/>
+      <c r="U110" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -7358,6 +7610,9 @@
       <c r="T111">
         <v>7.5750000000000002</v>
       </c>
+      <c r="U111" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -7420,7 +7675,9 @@
       <c r="T112">
         <v>4.0989000000000004</v>
       </c>
-      <c r="U112" s="1"/>
+      <c r="U112" s="6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -7483,7 +7740,9 @@
       <c r="T113">
         <v>6.0336999999999996</v>
       </c>
-      <c r="U113" s="1"/>
+      <c r="U113" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -7546,7 +7805,9 @@
       <c r="T114">
         <v>5.0522</v>
       </c>
-      <c r="U114" s="1"/>
+      <c r="U114" s="6">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -7660,6 +7921,9 @@
       <c r="T116">
         <v>5.8544</v>
       </c>
+      <c r="U116" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -7722,7 +7986,9 @@
       <c r="T117">
         <v>5.6836000000000002</v>
       </c>
-      <c r="U117" s="1"/>
+      <c r="U117" s="6">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -7785,7 +8051,9 @@
       <c r="T118">
         <v>5.2206000000000001</v>
       </c>
-      <c r="U118" s="1"/>
+      <c r="U118" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -7848,7 +8116,9 @@
       <c r="T119">
         <v>6.3338000000000001</v>
       </c>
-      <c r="U119" s="1"/>
+      <c r="U119" s="6">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -7911,7 +8181,9 @@
       <c r="T120">
         <v>6.5338000000000003</v>
       </c>
-      <c r="U120" s="1"/>
+      <c r="U120" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -8025,7 +8297,9 @@
       <c r="T122">
         <v>8.7715999999999994</v>
       </c>
-      <c r="U122" s="1"/>
+      <c r="U122" s="6">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -8088,7 +8362,9 @@
       <c r="T123">
         <v>9.0961999999999996</v>
       </c>
-      <c r="U123" s="1"/>
+      <c r="U123" s="6">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -8151,7 +8427,9 @@
       <c r="T124">
         <v>7.1992000000000003</v>
       </c>
-      <c r="U124" s="1"/>
+      <c r="U124" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -8214,6 +8492,9 @@
       <c r="T125">
         <v>8.5611999999999995</v>
       </c>
+      <c r="U125" s="6">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -8264,6 +8545,7 @@
       <c r="S126">
         <v>20400000</v>
       </c>
+      <c r="U126" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A112:G126">
